--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2418538.966992079</v>
+        <v>2414156.006246174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9975138.252205918</v>
+        <v>9964927.035287911</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>429604.7259431055</v>
+        <v>430763.7823717238</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9591273.301777333</v>
+        <v>9591418.341927968</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>353.1408298303819</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>115.9738437752621</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>162.3364906735235</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>26.32882004050054</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>163.8427767359259</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>248.2241436653405</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,13 +1098,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1.941719304021795</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>49.75696784121567</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>59.27537473814054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>325.2557485598851</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229335</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586824</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>230.2634979541059</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127584</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T11" t="n">
-        <v>199.1970568374745</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
         <v>250.9088959876463</v>
@@ -1466,7 +1466,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>21.11024843228049</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>26.25656834020188</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U13" t="n">
         <v>286.1854515484204</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081973</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1703,7 +1703,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>38.03682829123536</v>
       </c>
       <c r="T16" t="n">
-        <v>170.16164698483</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U16" t="n">
         <v>286.1854515484204</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1940,7 +1940,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2022,7 +2022,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1854515484204</v>
+        <v>163.647285193466</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>173.6007886821714</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2177,7 +2177,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>84.56702400647403</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>59.75887110882675</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108356</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060081962</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2414,7 +2414,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561455</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2535,13 +2535,13 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>227.2655630271049</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>21.36691228967391</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2715,25 +2715,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>19.16858895780562</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>140.4539897919504</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,10 +2763,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.3384883584589</v>
+        <v>26.07730666326349</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
         <v>286.1854515484204</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>9.434273714506089</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5420528771669</v>
@@ -3003,10 +3003,10 @@
         <v>181.3384883584589</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U31" t="n">
-        <v>85.2163951212859</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3195,7 +3195,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>56.9324964476884</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S34" t="n">
         <v>181.3384883584589</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U34" t="n">
         <v>286.1854515484204</v>
@@ -3249,13 +3249,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>45.41835812605916</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T36" t="n">
         <v>188.3907690366107</v>
@@ -3429,22 +3429,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>64.44601915223043</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H37" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S37" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U37" t="n">
         <v>286.1854515484204</v>
@@ -3489,10 +3489,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>63.49327213205743</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081882</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374755</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T39" t="n">
         <v>188.3907690366107</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112.1096179859309</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>9.43427371449506</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.4539897919539</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S40" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127576</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045443</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081963</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T41" t="n">
         <v>199.1970568374742</v>
@@ -3799,7 +3799,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561457</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.4255876952162</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T42" t="n">
         <v>188.3907690366107</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>5.313812950980709</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440903</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108356</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.338488358459</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U43" t="n">
         <v>286.1854515484204</v>
       </c>
       <c r="V43" t="n">
-        <v>16.75765473768369</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8432760127577</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.5630920045445</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>84.61259060082001</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.1970568374742</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4070,10 +4070,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>84.02406320561465</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,13 +4106,13 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.0286782364134</v>
+        <v>117.4255876952164</v>
       </c>
       <c r="T45" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3907690366107</v>
       </c>
       <c r="U45" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7492064608734</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>131.6267707433142</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4185,16 +4185,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.3384883584591</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4819944627618</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V46" t="n">
-        <v>219.2450387532278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1374.814428194113</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="C2" t="n">
-        <v>1374.814428194113</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="D2" t="n">
-        <v>1018.106519274536</v>
+        <v>1749.341643278937</v>
       </c>
       <c r="E2" t="n">
-        <v>632.3182666762915</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2580.003794275533</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2361.369127247596</v>
       </c>
       <c r="U2" t="n">
-        <v>2465.942913862886</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="V2" t="n">
-        <v>2134.880026519315</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="W2" t="n">
-        <v>2134.880026519315</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="X2" t="n">
-        <v>1761.414268258235</v>
+        <v>2107.607341885688</v>
       </c>
       <c r="Y2" t="n">
-        <v>1761.414268258235</v>
+        <v>2107.607341885688</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>217.9192350259437</v>
+        <v>519.8857516585174</v>
       </c>
       <c r="C4" t="n">
-        <v>217.9192350259437</v>
+        <v>350.9495687306105</v>
       </c>
       <c r="D4" t="n">
-        <v>217.9192350259437</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E4" t="n">
-        <v>217.9192350259437</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>217.9192350259437</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4527,13 +4527,13 @@
         <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>438.7118141694738</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>217.9192350259437</v>
+        <v>701.5342164887571</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1133.624152959604</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1133.624152959604</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117851</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117851</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177354</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036444</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.514423990285</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="U5" t="n">
-        <v>2224.752638628376</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="V5" t="n">
-        <v>1893.689751284805</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="W5" t="n">
-        <v>1893.689751284805</v>
+        <v>2520.971603332392</v>
       </c>
       <c r="X5" t="n">
-        <v>1520.223993023726</v>
+        <v>2147.505845071312</v>
       </c>
       <c r="Y5" t="n">
-        <v>1520.223993023726</v>
+        <v>1757.366513095501</v>
       </c>
     </row>
     <row r="6">
@@ -4646,13 +4646,13 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615927</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598714</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>544.5191867458693</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>394.4025473335336</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>246.4894537511405</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036444</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036444</v>
@@ -4734,43 +4734,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="T7" t="n">
-        <v>513.8405610245969</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="U7" t="n">
-        <v>513.8405610245969</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="V7" t="n">
-        <v>513.8405610245969</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="W7" t="n">
-        <v>513.8405610245969</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="X7" t="n">
-        <v>285.8510101265796</v>
+        <v>726.1676515761091</v>
       </c>
       <c r="Y7" t="n">
-        <v>235.5914466506042</v>
+        <v>726.1676515761091</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1465.195303554219</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>1096.232786613807</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>1096.232786613807</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>1096.232786613807</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>685.2468818241996</v>
+        <v>67.86638588177352</v>
       </c>
       <c r="G8" t="n">
-        <v>267.2830737223865</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.723949158869</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="X8" t="n">
-        <v>1465.195303554219</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1465.195303554219</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>53.94298182036444</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>53.94298182036444</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>53.94298182036444</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036444</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477909</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594899</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.128984206434</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>728.128984206434</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>728.128984206434</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.128984206434</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.128984206434</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.128984206434</v>
       </c>
       <c r="X10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.128984206434</v>
       </c>
       <c r="Y10" t="n">
-        <v>53.94298182036444</v>
+        <v>728.128984206434</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5041,22 +5041,22 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J11" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K11" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M11" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N11" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O11" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P11" t="n">
         <v>4202.751434297607</v>
@@ -5074,19 +5074,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>241.496329903453</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668117</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.737405310563</v>
+        <v>915.0894235587172</v>
       </c>
       <c r="M12" t="n">
-        <v>1154.278642310989</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N12" t="n">
-        <v>1776.374605710325</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="O12" t="n">
-        <v>2323.25108071052</v>
+        <v>2129.203741210181</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.25108071052</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.812354695766</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>896.4229620634577</v>
+        <v>746.1252502501684</v>
       </c>
       <c r="C13" t="n">
-        <v>727.4867791355508</v>
+        <v>577.1890673222615</v>
       </c>
       <c r="D13" t="n">
-        <v>577.3701397232151</v>
+        <v>555.8655840573317</v>
       </c>
       <c r="E13" t="n">
-        <v>429.4570461408219</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F13" t="n">
-        <v>402.9352599385978</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G13" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H13" t="n">
         <v>93.84834815160704</v>
@@ -5199,10 +5199,10 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J13" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K13" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L13" t="n">
         <v>820.2210160948589</v>
@@ -5223,28 +5223,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R13" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T13" t="n">
-        <v>2178.382964033126</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U13" t="n">
-        <v>1889.306750347853</v>
+        <v>1920.657503364803</v>
       </c>
       <c r="V13" t="n">
-        <v>1634.622262141966</v>
+        <v>1665.973015158916</v>
       </c>
       <c r="W13" t="n">
-        <v>1345.205092105005</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="X13" t="n">
-        <v>1117.215541206988</v>
+        <v>1148.566294223938</v>
       </c>
       <c r="Y13" t="n">
-        <v>896.4229620634577</v>
+        <v>927.7737150804081</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C14" t="n">
         <v>1949.298676890959</v>
@@ -5266,64 +5266,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G14" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160701</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
         <v>373.34422365072</v>
       </c>
       <c r="K14" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L14" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M14" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N14" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O14" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P14" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
         <v>3095.000365871304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J15" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K15" t="n">
-        <v>572.0050724668117</v>
+        <v>241.496329903453</v>
       </c>
       <c r="L15" t="n">
-        <v>734.6951238849133</v>
+        <v>241.496329903453</v>
       </c>
       <c r="M15" t="n">
-        <v>734.6951238849133</v>
+        <v>833.5146841555808</v>
       </c>
       <c r="N15" t="n">
-        <v>1356.791087284249</v>
+        <v>1455.610647554917</v>
       </c>
       <c r="O15" t="n">
-        <v>1903.667562284444</v>
+        <v>2002.487122555111</v>
       </c>
       <c r="P15" t="n">
-        <v>2323.25108071052</v>
+        <v>2422.070640981187</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.812354695766</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>952.5320614616468</v>
+        <v>707.7042115721531</v>
       </c>
       <c r="C16" t="n">
-        <v>783.5958785337399</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D16" t="n">
-        <v>633.4792391214041</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E16" t="n">
-        <v>485.566145539011</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F16" t="n">
-        <v>485.566145539011</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G16" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H16" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J16" t="n">
         <v>172.8304710411609</v>
@@ -5460,28 +5460,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2178.382964033126</v>
+        <v>2390.991460657679</v>
       </c>
       <c r="T16" t="n">
-        <v>2006.502512533298</v>
+        <v>2171.312678372061</v>
       </c>
       <c r="U16" t="n">
-        <v>1717.426298848025</v>
+        <v>1882.236464686788</v>
       </c>
       <c r="V16" t="n">
-        <v>1462.741810642138</v>
+        <v>1627.551976480901</v>
       </c>
       <c r="W16" t="n">
-        <v>1173.324640605177</v>
+        <v>1338.13480644394</v>
       </c>
       <c r="X16" t="n">
-        <v>1173.324640605177</v>
+        <v>1110.145255545923</v>
       </c>
       <c r="Y16" t="n">
-        <v>952.5320614616468</v>
+        <v>889.3526764023928</v>
       </c>
     </row>
     <row r="17">
@@ -5503,43 +5503,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963563</v>
       </c>
       <c r="G17" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.1437450015209</v>
+        <v>373.34422365072</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892027</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234015</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S17" t="n">
         <v>4606.950144347201</v>
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3082.265894313995</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C18" t="n">
-        <v>2907.812865032868</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D18" t="n">
-        <v>2758.878455371617</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E18" t="n">
-        <v>2599.641000366161</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F18" t="n">
-        <v>2453.106442393046</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G18" t="n">
-        <v>2317.326192152976</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>2232.453401036193</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I18" t="n">
-        <v>2232.453401036193</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>2380.101382788039</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>2380.101382788039</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>2870.83371563179</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>3462.852069883918</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N18" t="n">
-        <v>4042.272615169029</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O18" t="n">
-        <v>4042.272615169029</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P18" t="n">
-        <v>4461.856133595105</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q18" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R18" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S18" t="n">
-        <v>4573.80570283771</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T18" t="n">
-        <v>4383.511996740123</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U18" t="n">
-        <v>4155.482495264494</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V18" t="n">
-        <v>3920.330387032751</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W18" t="n">
-        <v>3666.09303030455</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X18" t="n">
-        <v>3458.241530099017</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y18" t="n">
-        <v>3250.481231334063</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="19">
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>802.415422049311</v>
+        <v>869.9011758612336</v>
       </c>
       <c r="C19" t="n">
-        <v>633.4792391214041</v>
+        <v>700.9649929333267</v>
       </c>
       <c r="D19" t="n">
-        <v>633.4792391214041</v>
+        <v>550.8483535209909</v>
       </c>
       <c r="E19" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F19" t="n">
-        <v>485.566145539011</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G19" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J19" t="n">
         <v>172.8304710411609</v>
@@ -5697,28 +5697,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R19" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S19" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T19" t="n">
-        <v>1958.704181747508</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U19" t="n">
-        <v>1669.627968062235</v>
+        <v>2044.433428975868</v>
       </c>
       <c r="V19" t="n">
-        <v>1669.627968062235</v>
+        <v>1789.748940769981</v>
       </c>
       <c r="W19" t="n">
-        <v>1380.210798025274</v>
+        <v>1500.331770733021</v>
       </c>
       <c r="X19" t="n">
-        <v>1204.856466023081</v>
+        <v>1272.342219835003</v>
       </c>
       <c r="Y19" t="n">
-        <v>984.0638868795508</v>
+        <v>1051.549640691473</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D20" t="n">
         <v>1591.032978284208</v>
@@ -5740,37 +5740,37 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G20" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
         <v>373.34422365072</v>
       </c>
       <c r="K20" t="n">
-        <v>842.9746074384018</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L20" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M20" t="n">
-        <v>2183.498949883214</v>
+        <v>2234.298471234015</v>
       </c>
       <c r="N20" t="n">
-        <v>2920.78392780032</v>
+        <v>2971.583449151121</v>
       </c>
       <c r="O20" t="n">
-        <v>3603.645964259458</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P20" t="n">
-        <v>4151.951912946806</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q20" t="n">
         <v>4566.333620403614</v>
@@ -5785,19 +5785,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="21">
@@ -5825,31 +5825,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J21" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>302.0892292003572</v>
+        <v>274.0404001883699</v>
       </c>
       <c r="L21" t="n">
-        <v>792.8215620441084</v>
+        <v>764.7727330321212</v>
       </c>
       <c r="M21" t="n">
-        <v>1384.839916296236</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="N21" t="n">
-        <v>2006.935879695572</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.812354695766</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2939.749088022499</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C22" t="n">
-        <v>2939.749088022499</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>2789.632448610163</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E22" t="n">
-        <v>2641.71935502777</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F22" t="n">
-        <v>2581.356858958248</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G22" t="n">
-        <v>2581.356858958248</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H22" t="n">
-        <v>2439.484141996678</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I22" t="n">
-        <v>2356.853256396265</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J22" t="n">
-        <v>2435.835379285819</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K22" t="n">
-        <v>2695.464106256383</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L22" t="n">
-        <v>3083.225924339517</v>
+        <v>820.2210160948589</v>
       </c>
       <c r="M22" t="n">
-        <v>3502.455516383976</v>
+        <v>1239.450608139318</v>
       </c>
       <c r="N22" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.146473931025</v>
       </c>
       <c r="O22" t="n">
-        <v>4284.173839190713</v>
+        <v>2021.168930946055</v>
       </c>
       <c r="P22" t="n">
-        <v>4574.704274026917</v>
+        <v>2311.69936578226</v>
       </c>
       <c r="Q22" t="n">
-        <v>4692.417407580352</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>4624.558062538854</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.709089992167</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.632876306894</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.948388101007</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.531218064046</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.541667166029</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.749088022499</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5977,64 +5977,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
         <v>373.34422365072</v>
       </c>
       <c r="K23" t="n">
-        <v>893.7741287892027</v>
+        <v>842.974607438402</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944177</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3082.265894313995</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C24" t="n">
-        <v>2907.812865032868</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D24" t="n">
-        <v>2758.878455371617</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E24" t="n">
-        <v>2599.641000366161</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F24" t="n">
-        <v>2453.106442393046</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G24" t="n">
-        <v>2317.326192152976</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>2232.453401036193</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.492433610716</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>2381.140415362562</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>2711.64915792592</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L24" t="n">
-        <v>3202.381490769671</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M24" t="n">
-        <v>3794.399845021799</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>4416.495808421136</v>
+        <v>2006.935879695572</v>
       </c>
       <c r="O24" t="n">
-        <v>4461.856133595105</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P24" t="n">
-        <v>4461.856133595105</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q24" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
-        <v>4692.417407580352</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S24" t="n">
-        <v>4573.80570283771</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T24" t="n">
-        <v>4383.511996740123</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U24" t="n">
-        <v>4155.482495264494</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V24" t="n">
-        <v>3920.330387032751</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W24" t="n">
-        <v>3666.09303030455</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X24" t="n">
-        <v>3458.241530099017</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y24" t="n">
-        <v>3250.481231334063</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="25">
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>809.6361984155943</v>
+        <v>952.5320614616467</v>
       </c>
       <c r="C25" t="n">
-        <v>640.7000154876874</v>
+        <v>783.5958785337398</v>
       </c>
       <c r="D25" t="n">
-        <v>490.5833760753517</v>
+        <v>633.479239121404</v>
       </c>
       <c r="E25" t="n">
-        <v>490.5833760753517</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="F25" t="n">
-        <v>343.6934285774414</v>
+        <v>485.5661455390109</v>
       </c>
       <c r="G25" t="n">
-        <v>176.4792337520202</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H25" t="n">
         <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
         <v>172.8304710411609</v>
@@ -6171,28 +6171,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="S25" t="n">
-        <v>2178.382964033126</v>
+        <v>2429.412499335695</v>
       </c>
       <c r="T25" t="n">
-        <v>1958.704181747508</v>
+        <v>2209.733717050076</v>
       </c>
       <c r="U25" t="n">
-        <v>1669.627968062235</v>
+        <v>1920.657503364803</v>
       </c>
       <c r="V25" t="n">
-        <v>1669.627968062235</v>
+        <v>1665.973015158916</v>
       </c>
       <c r="W25" t="n">
-        <v>1440.066793287381</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="X25" t="n">
-        <v>1212.077242389364</v>
+        <v>1354.973105435416</v>
       </c>
       <c r="Y25" t="n">
-        <v>991.2846632458341</v>
+        <v>1134.180526291886</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160706</v>
@@ -6229,7 +6229,7 @@
         <v>373.3442236507205</v>
       </c>
       <c r="K26" t="n">
-        <v>842.9746074384032</v>
+        <v>893.7741287891952</v>
       </c>
       <c r="L26" t="n">
         <v>1513.293909294971</v>
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3082.265894313994</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C27" t="n">
-        <v>2907.812865032867</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D27" t="n">
-        <v>2758.878455371616</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E27" t="n">
-        <v>2599.64100036616</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F27" t="n">
-        <v>2453.106442393045</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G27" t="n">
-        <v>2317.326192152975</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H27" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I27" t="n">
-        <v>2233.492433610715</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>2381.140415362561</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K27" t="n">
-        <v>2711.64915792592</v>
+        <v>243.9627910411584</v>
       </c>
       <c r="L27" t="n">
-        <v>2711.64915792592</v>
+        <v>734.6951238849103</v>
       </c>
       <c r="M27" t="n">
-        <v>3303.667512178049</v>
+        <v>734.6951238849103</v>
       </c>
       <c r="N27" t="n">
-        <v>3925.763475577386</v>
+        <v>1356.791087284247</v>
       </c>
       <c r="O27" t="n">
-        <v>4461.856133595104</v>
+        <v>1903.667562284443</v>
       </c>
       <c r="P27" t="n">
-        <v>4461.856133595104</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q27" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R27" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S27" t="n">
-        <v>4573.805702837709</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T27" t="n">
-        <v>4383.511996740122</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U27" t="n">
-        <v>4155.482495264493</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V27" t="n">
-        <v>3920.33038703275</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W27" t="n">
-        <v>3666.093030304549</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X27" t="n">
-        <v>3458.241530099016</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y27" t="n">
-        <v>3250.481231334062</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3045.638750519374</v>
+        <v>719.7845364488942</v>
       </c>
       <c r="C28" t="n">
-        <v>3045.638750519374</v>
+        <v>550.8483535209873</v>
       </c>
       <c r="D28" t="n">
-        <v>2895.522111107038</v>
+        <v>550.8483535209873</v>
       </c>
       <c r="E28" t="n">
-        <v>2747.609017524645</v>
+        <v>402.9352599385942</v>
       </c>
       <c r="F28" t="n">
-        <v>2600.719070026735</v>
+        <v>402.9352599385942</v>
       </c>
       <c r="G28" t="n">
-        <v>2581.356858958244</v>
+        <v>235.721065113173</v>
       </c>
       <c r="H28" t="n">
-        <v>2439.484141996675</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I28" t="n">
-        <v>2356.853256396262</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J28" t="n">
-        <v>2435.835379285816</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K28" t="n">
-        <v>2695.46410625638</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L28" t="n">
-        <v>3083.225924339514</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M28" t="n">
-        <v>3502.455516383974</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N28" t="n">
-        <v>3917.151382175681</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O28" t="n">
-        <v>4284.173839190711</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P28" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q28" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R28" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="S28" t="n">
-        <v>4509.247217319282</v>
+        <v>2403.071785534421</v>
       </c>
       <c r="T28" t="n">
-        <v>4509.247217319282</v>
+        <v>2183.393003248802</v>
       </c>
       <c r="U28" t="n">
-        <v>4220.171003634008</v>
+        <v>1894.316789563529</v>
       </c>
       <c r="V28" t="n">
-        <v>3965.486515428121</v>
+        <v>1639.632301357642</v>
       </c>
       <c r="W28" t="n">
-        <v>3676.069345391161</v>
+        <v>1350.215131320681</v>
       </c>
       <c r="X28" t="n">
-        <v>3448.079794493144</v>
+        <v>1122.225580422664</v>
       </c>
       <c r="Y28" t="n">
-        <v>3227.287215349614</v>
+        <v>901.4330012791339</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160703</v>
@@ -6490,7 +6490,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6542,28 +6542,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J30" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K30" t="n">
-        <v>424.3570907149663</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L30" t="n">
-        <v>654.2270403990664</v>
+        <v>792.8215620441057</v>
       </c>
       <c r="M30" t="n">
-        <v>1246.245394651195</v>
+        <v>1384.839916296234</v>
       </c>
       <c r="N30" t="n">
-        <v>1868.341358050532</v>
+        <v>2006.935879695571</v>
       </c>
       <c r="O30" t="n">
-        <v>1868.341358050532</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P30" t="n">
-        <v>2287.924876476608</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q30" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3362.426917204211</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C31" t="n">
-        <v>3193.490734276304</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="D31" t="n">
-        <v>3043.374094863969</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="E31" t="n">
-        <v>2895.461001281576</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="F31" t="n">
-        <v>2748.571053783665</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="G31" t="n">
-        <v>2581.356858958244</v>
+        <v>318.3519507135896</v>
       </c>
       <c r="H31" t="n">
-        <v>2439.484141996675</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I31" t="n">
-        <v>2356.853256396262</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J31" t="n">
-        <v>2435.835379285816</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K31" t="n">
-        <v>2695.46410625638</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L31" t="n">
-        <v>3083.225924339514</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M31" t="n">
-        <v>3502.455516383974</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N31" t="n">
-        <v>3917.151382175681</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O31" t="n">
-        <v>4284.173839190711</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P31" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q31" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R31" t="n">
-        <v>4624.558062538853</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S31" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T31" t="n">
-        <v>4441.387872277784</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U31" t="n">
-        <v>4355.310705488606</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V31" t="n">
-        <v>4100.626217282719</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W31" t="n">
-        <v>3811.209047245758</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X31" t="n">
-        <v>3583.219496347741</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y31" t="n">
-        <v>3362.426917204211</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="32">
@@ -6688,46 +6688,46 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J32" t="n">
-        <v>373.3442236507205</v>
+        <v>373.3442236507206</v>
       </c>
       <c r="K32" t="n">
-        <v>842.9746074384032</v>
+        <v>893.7741287891961</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294971</v>
+        <v>1513.293909294972</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234009</v>
+        <v>2234.29847123401</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.583449151116</v>
+        <v>2971.583449151117</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610256</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297605</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T32" t="n">
         <v>4405.740996026519</v>
@@ -6773,34 +6773,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I33" t="n">
-        <v>94.88738072612972</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J33" t="n">
-        <v>94.88738072612972</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K33" t="n">
-        <v>425.396123289489</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L33" t="n">
-        <v>425.396123289489</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M33" t="n">
-        <v>699.3689196509997</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="N33" t="n">
-        <v>1321.464883050337</v>
+        <v>1684.833368709902</v>
       </c>
       <c r="O33" t="n">
-        <v>1868.341358050532</v>
+        <v>2231.709843710097</v>
       </c>
       <c r="P33" t="n">
-        <v>2287.924876476608</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q33" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>957.5492919979873</v>
+        <v>784.5128849845635</v>
       </c>
       <c r="C34" t="n">
-        <v>788.6131090700804</v>
+        <v>615.5767020566566</v>
       </c>
       <c r="D34" t="n">
-        <v>638.4964696577447</v>
+        <v>465.4600626443208</v>
       </c>
       <c r="E34" t="n">
-        <v>490.5833760753516</v>
+        <v>407.9524904749386</v>
       </c>
       <c r="F34" t="n">
-        <v>343.6934285774412</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G34" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H34" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J34" t="n">
         <v>172.8304710411611</v>
@@ -6882,28 +6882,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R34" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S34" t="n">
-        <v>2246.242309074627</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T34" t="n">
-        <v>2246.242309074627</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U34" t="n">
-        <v>1957.166095389354</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V34" t="n">
-        <v>1702.481607183467</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.064437146506</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="X34" t="n">
-        <v>1185.074886248489</v>
+        <v>1186.953928958333</v>
       </c>
       <c r="Y34" t="n">
-        <v>1139.197756828227</v>
+        <v>966.1613498148032</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963566</v>
+        <v>794.2588208963573</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127638</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160775</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J35" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K35" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.95191294679</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.534099052795</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -6992,61 +6992,61 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C36" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E36" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F36" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G36" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J36" t="n">
-        <v>241.496329903453</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L36" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="M36" t="n">
-        <v>1164.023426718939</v>
+        <v>1164.023426718935</v>
       </c>
       <c r="N36" t="n">
-        <v>1786.119390118276</v>
+        <v>1786.119390118269</v>
       </c>
       <c r="O36" t="n">
-        <v>1868.341358050533</v>
+        <v>2332.995865118461</v>
       </c>
       <c r="P36" t="n">
-        <v>2287.924876476609</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q36" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S36" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U36" t="n">
         <v>2016.877442379908</v>
@@ -7058,7 +7058,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y36" t="n">
         <v>1111.876178449477</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3362.426917204214</v>
+        <v>495.0957149475921</v>
       </c>
       <c r="C37" t="n">
-        <v>3193.490734276307</v>
+        <v>326.1595320196852</v>
       </c>
       <c r="D37" t="n">
-        <v>3043.374094863972</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E37" t="n">
-        <v>2895.461001281578</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F37" t="n">
-        <v>2748.571053783668</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
-        <v>2581.356858958247</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H37" t="n">
-        <v>2439.484141996677</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I37" t="n">
-        <v>2356.853256396264</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J37" t="n">
-        <v>2435.835379285818</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K37" t="n">
-        <v>2695.464106256382</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L37" t="n">
-        <v>3083.225924339516</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M37" t="n">
-        <v>3502.455516383975</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N37" t="n">
-        <v>3917.151382175683</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O37" t="n">
-        <v>4284.173839190712</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P37" t="n">
-        <v>4574.704274026916</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q37" t="n">
-        <v>4692.417407580351</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R37" t="n">
-        <v>4624.558062538853</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S37" t="n">
-        <v>4441.387872277784</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T37" t="n">
-        <v>4441.387872277784</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U37" t="n">
-        <v>4152.311658592511</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V37" t="n">
-        <v>3897.627170386624</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W37" t="n">
-        <v>3608.210000349663</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X37" t="n">
-        <v>3544.075382034454</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y37" t="n">
-        <v>3544.075382034454</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="38">
@@ -7150,58 +7150,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C38" t="n">
         <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E38" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J38" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K38" t="n">
-        <v>842.974607438402</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944177</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883215</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800321</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.64596425946</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.951912946808</v>
+        <v>4151.95191294679</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.534099052815</v>
+        <v>4515.534099052795</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
@@ -7210,7 +7210,7 @@
         <v>4152.297666746069</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W38" t="n">
         <v>3468.466124132384</v>
@@ -7219,7 +7219,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="39">
@@ -7229,61 +7229,61 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6608414294086</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C39" t="n">
-        <v>769.2078121482816</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2734024870304</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E39" t="n">
-        <v>461.0359474815749</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F39" t="n">
-        <v>314.5013895084599</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G39" t="n">
-        <v>178.7211392683894</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K39" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L39" t="n">
-        <v>915.0894235587172</v>
+        <v>1062.737405310559</v>
       </c>
       <c r="M39" t="n">
-        <v>929.9301936362498</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="N39" t="n">
-        <v>1552.026157035586</v>
+        <v>1654.755759562684</v>
       </c>
       <c r="O39" t="n">
-        <v>2098.90263203578</v>
+        <v>2201.632234562877</v>
       </c>
       <c r="P39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="Q39" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.812354695766</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S39" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.906943855537</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U39" t="n">
         <v>2016.877442379908</v>
@@ -7295,7 +7295,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.63647721443</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y39" t="n">
         <v>1111.876178449477</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>784.2947205517428</v>
+        <v>495.0957149475921</v>
       </c>
       <c r="C40" t="n">
-        <v>615.3585376238359</v>
+        <v>485.5661455390112</v>
       </c>
       <c r="D40" t="n">
-        <v>465.2418982115001</v>
+        <v>485.5661455390112</v>
       </c>
       <c r="E40" t="n">
-        <v>465.2418982115001</v>
+        <v>485.5661455390112</v>
       </c>
       <c r="F40" t="n">
-        <v>318.3519507135898</v>
+        <v>485.5661455390112</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135898</v>
+        <v>318.3519507135901</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520202</v>
+        <v>176.4792337520204</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294196</v>
+        <v>2361.553154294188</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033126</v>
+        <v>2178.382964033118</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.704181747508</v>
+        <v>1958.7041817475</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062235</v>
+        <v>1669.627968062227</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856348</v>
+        <v>1414.94347985634</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.526309819387</v>
+        <v>1125.526309819379</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213699</v>
+        <v>897.536758921362</v>
       </c>
       <c r="Y40" t="n">
-        <v>897.5367589213699</v>
+        <v>676.7441797778318</v>
       </c>
     </row>
     <row r="41">
@@ -7390,70 +7390,70 @@
         <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284209</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963568</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127632</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507199</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074384018</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944176</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883214</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.78392780032</v>
+        <v>2920.783927800308</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259458</v>
+        <v>3603.645964259444</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.951912946806</v>
+        <v>4151.95191294679</v>
       </c>
       <c r="Q41" t="n">
-        <v>4515.534099052813</v>
+        <v>4515.534099052795</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.740996026519</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V41" t="n">
         <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.861033895493</v>
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3082.265894313994</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C42" t="n">
-        <v>2907.812865032867</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D42" t="n">
-        <v>2758.878455371616</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E42" t="n">
-        <v>2599.64100036616</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F42" t="n">
-        <v>2453.106442393045</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G42" t="n">
-        <v>2317.326192152975</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H42" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I42" t="n">
-        <v>2232.453401036192</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J42" t="n">
-        <v>2380.101382788038</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K42" t="n">
-        <v>2380.101382788038</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="L42" t="n">
-        <v>2870.833715631789</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="M42" t="n">
-        <v>3462.852069883917</v>
+        <v>833.5146841555776</v>
       </c>
       <c r="N42" t="n">
-        <v>3725.957414154081</v>
+        <v>1455.610647554911</v>
       </c>
       <c r="O42" t="n">
-        <v>4272.833889154275</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P42" t="n">
-        <v>4692.417407580351</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q42" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R42" t="n">
-        <v>4692.417407580351</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S42" t="n">
-        <v>4573.805702837709</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>4383.511996740122</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U42" t="n">
-        <v>4155.482495264493</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V42" t="n">
-        <v>3920.33038703275</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W42" t="n">
-        <v>3666.093030304549</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>3458.241530099016</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y42" t="n">
-        <v>3250.481231334062</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>952.5320614616468</v>
+        <v>562.9550599890908</v>
       </c>
       <c r="C43" t="n">
-        <v>783.5958785337399</v>
+        <v>394.018877061184</v>
       </c>
       <c r="D43" t="n">
-        <v>633.4792391214041</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E43" t="n">
-        <v>485.566145539011</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F43" t="n">
-        <v>485.566145539011</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3519507135898</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411609</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948589</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139318</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.146473931025</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946055</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.69936578226</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335695</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R43" t="n">
-        <v>2361.553154294196</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="S43" t="n">
-        <v>2178.382964033126</v>
+        <v>2246.242309074617</v>
       </c>
       <c r="T43" t="n">
-        <v>2178.382964033126</v>
+        <v>2026.563526788999</v>
       </c>
       <c r="U43" t="n">
-        <v>1889.306750347853</v>
+        <v>1737.487313103726</v>
       </c>
       <c r="V43" t="n">
-        <v>1872.379826370395</v>
+        <v>1482.802824897839</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.962656333434</v>
+        <v>1193.385654860878</v>
       </c>
       <c r="X43" t="n">
-        <v>1354.973105435417</v>
+        <v>965.3961039628607</v>
       </c>
       <c r="Y43" t="n">
-        <v>1134.180526291887</v>
+        <v>744.6035248193306</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.80771165551</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.845194715098</v>
+        <v>1949.29867689096</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.579496108348</v>
+        <v>1591.03297828421</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.791243510104</v>
+        <v>1205.244725685965</v>
       </c>
       <c r="F44" t="n">
-        <v>793.8053387204961</v>
+        <v>794.2588208963575</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8625725399035</v>
+        <v>380.2757138127638</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160777</v>
       </c>
       <c r="I44" t="n">
-        <v>95.37264148556113</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J44" t="n">
-        <v>378.2242654148067</v>
+        <v>373.3442236507186</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8840462112157</v>
+        <v>842.9746074383984</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.643238436022</v>
+        <v>1462.494387944171</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.590348118414</v>
+        <v>2183.498949883205</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.930211459572</v>
+        <v>2971.58344915113</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.453976171645</v>
+        <v>3654.445485610265</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.445555798342</v>
+        <v>4202.751434297611</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.29741395589</v>
+        <v>4566.333620403616</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.864837502229</v>
+        <v>4692.417407580353</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.316842596213</v>
+        <v>4606.950144347202</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.284286578419</v>
+        <v>4405.74099602652</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.844184570208</v>
+        <v>4152.29766674607</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.781297226637</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.012641956523</v>
+        <v>3468.466124132385</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.546883695443</v>
+        <v>3095.000365871305</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.407551719632</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.4307983814816</v>
+        <v>943.6608414294088</v>
       </c>
       <c r="C45" t="n">
-        <v>768.9777691003546</v>
+        <v>769.2078121482818</v>
       </c>
       <c r="D45" t="n">
-        <v>620.0433594391034</v>
+        <v>620.2734024870306</v>
       </c>
       <c r="E45" t="n">
-        <v>460.8059044336479</v>
+        <v>461.035947481575</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2713464605329</v>
+        <v>314.50138950846</v>
       </c>
       <c r="G45" t="n">
-        <v>178.5126805064408</v>
+        <v>178.7211392683895</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I45" t="n">
-        <v>95.61573535637417</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J45" t="n">
-        <v>95.61573535637417</v>
+        <v>241.4963299034522</v>
       </c>
       <c r="K45" t="n">
-        <v>95.61573535637417</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="L45" t="n">
-        <v>590.9413415721328</v>
+        <v>572.0050724668096</v>
       </c>
       <c r="M45" t="n">
-        <v>1188.319829198685</v>
+        <v>734.6951238849206</v>
       </c>
       <c r="N45" t="n">
-        <v>1815.917792753291</v>
+        <v>1356.791087284254</v>
       </c>
       <c r="O45" t="n">
-        <v>2319.831312789528</v>
+        <v>1903.667562284447</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.831312789528</v>
+        <v>2323.251080710521</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.09297316441</v>
+        <v>2553.812354695767</v>
       </c>
       <c r="S45" t="n">
-        <v>2434.882187067023</v>
+        <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.675480788796</v>
+        <v>2244.906943855538</v>
       </c>
       <c r="U45" t="n">
-        <v>2016.647399331981</v>
+        <v>2016.877442379908</v>
       </c>
       <c r="V45" t="n">
-        <v>1781.495291100238</v>
+        <v>1781.725334148165</v>
       </c>
       <c r="W45" t="n">
-        <v>1527.257934372036</v>
+        <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.406434166503</v>
+        <v>1319.636477214431</v>
       </c>
       <c r="Y45" t="n">
-        <v>1111.64613540155</v>
+        <v>1111.876178449477</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1016.612142015075</v>
+        <v>562.9550599890908</v>
       </c>
       <c r="C46" t="n">
-        <v>847.6759590871683</v>
+        <v>394.018877061184</v>
       </c>
       <c r="D46" t="n">
-        <v>697.5593196748325</v>
+        <v>394.018877061184</v>
       </c>
       <c r="E46" t="n">
-        <v>549.6462260924394</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F46" t="n">
-        <v>402.756278594529</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5601793094089</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0843665819309</v>
+        <v>172.8304710411604</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7736291074694</v>
+        <v>432.4591980117232</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1722232834095</v>
+        <v>820.2210160948563</v>
       </c>
       <c r="M46" t="n">
-        <v>1248.181926014444</v>
+        <v>1239.450608139314</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.591797674452</v>
+        <v>1654.14647393102</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.121078383437</v>
+        <v>2021.168930946049</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.796533956996</v>
+        <v>2311.699365782252</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.994768683895</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.994768683895</v>
+        <v>2429.412499335687</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.994768683895</v>
+        <v>2246.242309074617</v>
       </c>
       <c r="T46" t="n">
-        <v>2446.994768683895</v>
+        <v>2026.563526788999</v>
       </c>
       <c r="U46" t="n">
-        <v>2157.919542028093</v>
+        <v>1737.487313103726</v>
       </c>
       <c r="V46" t="n">
-        <v>1936.459906923823</v>
+        <v>1482.802824897839</v>
       </c>
       <c r="W46" t="n">
-        <v>1647.042736886862</v>
+        <v>1193.385654860878</v>
       </c>
       <c r="X46" t="n">
-        <v>1419.053185988845</v>
+        <v>965.3961039628607</v>
       </c>
       <c r="Y46" t="n">
-        <v>1198.260606845315</v>
+        <v>744.6035248193306</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028825</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050823</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8540,10 +8540,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516228</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451766</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8698,7 +8698,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>51.31264782909216</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -8938,7 +8938,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>51.31264782908988</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -8947,7 +8947,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>51.31264782909176</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.31264782909182</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>51.31264782909034</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>51.31264782909176</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -9640,7 +9640,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>51.31264782909176</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>51.312647829089</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,10 +9877,10 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>51.31264782908278</v>
       </c>
       <c r="L26" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
@@ -10351,10 +10351,10 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>51.3126478290838</v>
       </c>
       <c r="L32" t="n">
-        <v>51.31264782908283</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.312647829089</v>
+        <v>51.31264782911214</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.312647829089</v>
+        <v>51.31264782911214</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.31264782909091</v>
+        <v>51.31264782911214</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11308,7 +11308,7 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>51.31264782911239</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>127.5052245859319</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>119.1644796827294</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440903</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>143.3016600672236</v>
       </c>
       <c r="T16" t="n">
-        <v>47.32034747793182</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>122.5381663549544</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>52.10886670686574</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>64.04844901173833</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>85.66217691410449</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>59.25743530948606</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>204.3427430993632</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>146.3734639193613</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>67.18075159108344</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>155.2611816951954</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>157.8125473841218</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24891,10 +24891,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>200.9690564271345</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>89.50146619888076</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,13 +25137,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.1662952260356</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>84.16945386598192</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25377,10 +25377,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>162.2163832569797</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25548,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.72236219600643</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>157.8125473841328</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>143.3016600672316</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4819944627618</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>235.3799885861443</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>14.80719190325499</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.453989791954</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.80457674440925</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>67.1807515910839</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>32.89260457060018</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="9">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811667.3700579049</v>
+        <v>811667.3700579051</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811667.3700579049</v>
+        <v>811667.3700579051</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579051</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>811416.2074450926</v>
+        <v>811667.370057905</v>
       </c>
     </row>
   </sheetData>
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="E2" t="n">
-        <v>605012.2328389192</v>
+        <v>605012.2328389189</v>
       </c>
       <c r="F2" t="n">
-        <v>605012.2328389189</v>
+        <v>605012.232838919</v>
       </c>
       <c r="G2" t="n">
+        <v>605012.232838919</v>
+      </c>
+      <c r="H2" t="n">
         <v>605012.2328389193</v>
       </c>
-      <c r="H2" t="n">
-        <v>605012.2328389189</v>
-      </c>
       <c r="I2" t="n">
-        <v>605012.2328389192</v>
+        <v>605012.2328389187</v>
       </c>
       <c r="J2" t="n">
-        <v>605012.2328389195</v>
+        <v>605012.2328389194</v>
       </c>
       <c r="K2" t="n">
         <v>605012.2328389195</v>
@@ -26346,16 +26346,16 @@
         <v>605012.2328389194</v>
       </c>
       <c r="M2" t="n">
-        <v>605012.2328389189</v>
+        <v>605012.2328389194</v>
       </c>
       <c r="N2" t="n">
-        <v>605012.2328389192</v>
+        <v>605012.2328389193</v>
       </c>
       <c r="O2" t="n">
         <v>605012.2328389192</v>
       </c>
       <c r="P2" t="n">
-        <v>605359.9497675044</v>
+        <v>605012.2328389192</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545123</v>
+        <v>936509.6654545127</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.413517661587885e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901363</v>
+        <v>124307.2113901334</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26407,7 +26407,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6612.132574952783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277315</v>
+        <v>201064.5059277316</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855133</v>
+        <v>5781.971894855083</v>
       </c>
       <c r="F4" t="n">
-        <v>5781.971894855126</v>
+        <v>5781.971894855101</v>
       </c>
       <c r="G4" t="n">
-        <v>5781.971894855127</v>
+        <v>5781.971894855107</v>
       </c>
       <c r="H4" t="n">
-        <v>5781.971894855127</v>
+        <v>5781.97189485512</v>
       </c>
       <c r="I4" t="n">
-        <v>5781.971894855127</v>
+        <v>5781.971894855089</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855002</v>
+        <v>5781.971894855051</v>
       </c>
       <c r="K4" t="n">
         <v>5781.971894855006</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855003</v>
+        <v>5781.971894855016</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.971894855088</v>
+        <v>5781.97189485541</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855089</v>
+        <v>5781.971894855355</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.971894855114</v>
+        <v>5781.97189485541</v>
       </c>
       <c r="P4" t="n">
-        <v>5067.592601670437</v>
+        <v>5781.971894855415</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572386</v>
@@ -26511,7 +26511,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="P5" t="n">
-        <v>101146.6105026698</v>
+        <v>100930.0394572385</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-258110.1358074729</v>
+        <v>-258110.1358074728</v>
       </c>
       <c r="C6" t="n">
-        <v>331857.743407072</v>
+        <v>331857.7434070717</v>
       </c>
       <c r="D6" t="n">
-        <v>331857.7434070718</v>
+        <v>331857.7434070717</v>
       </c>
       <c r="E6" t="n">
-        <v>-438209.4439676869</v>
+        <v>-438568.4137863306</v>
       </c>
       <c r="F6" t="n">
-        <v>498300.2214868252</v>
+        <v>497941.2516681823</v>
       </c>
       <c r="G6" t="n">
-        <v>498300.2214868256</v>
+        <v>497941.2516681823</v>
       </c>
       <c r="H6" t="n">
-        <v>498300.2214868252</v>
+        <v>497941.2516681825</v>
       </c>
       <c r="I6" t="n">
-        <v>498300.2214868254</v>
+        <v>497941.2516681819</v>
       </c>
       <c r="J6" t="n">
-        <v>321877.0022942318</v>
+        <v>321518.0324755887</v>
       </c>
       <c r="K6" t="n">
-        <v>498300.2214868259</v>
+        <v>497941.2516681828</v>
       </c>
       <c r="L6" t="n">
-        <v>498300.2214868258</v>
+        <v>497941.2516681827</v>
       </c>
       <c r="M6" t="n">
-        <v>373993.010096689</v>
+        <v>373634.040278049</v>
       </c>
       <c r="N6" t="n">
-        <v>498300.2214868255</v>
+        <v>497941.2516681823</v>
       </c>
       <c r="O6" t="n">
-        <v>498300.2214868256</v>
+        <v>497941.2516681821</v>
       </c>
       <c r="P6" t="n">
-        <v>492533.6140882113</v>
+        <v>497941.2516681821</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170864</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26770,16 +26770,16 @@
         <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716386</v>
+        <v>1358.041048716382</v>
       </c>
       <c r="P3" t="n">
-        <v>1367.975500341674</v>
+        <v>1358.041048716382</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>980.297384499299</v>
+        <v>980.2973844992994</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26983,7 +26983,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.591615728102624e-12</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26992,16 +26992,16 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-2.463417391751033e-13</v>
+        <v>-4.544245200044531e-12</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>9.934451625288148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.8170791405328</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.817079140533</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.016897076984856e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405325</v>
+        <v>498.8170791405328</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>1.542211790301053</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,25 +27426,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>58.44186903370944</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4.973311585527455</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>192.2558333115942</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>218.8910649275547</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>106.4588979553424</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27663,19 +27663,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>27.18103065089253</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>168.8276855108791</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>264.6473980262166</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,28 +27900,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481177</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>44.47535211858394</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060691</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853703</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,19 +28055,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.12274995491434</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>56.01837628787183</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-8.139557993131504e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>3.523735785918312e-12</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>-8.35287806651275e-13</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31287,7 +31287,7 @@
         <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K5" t="n">
         <v>193.1674799081577</v>
@@ -31299,7 +31299,7 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O5" t="n">
         <v>255.8615389119865</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,31 +31357,31 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N6" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P6" t="n">
         <v>155.1528646479577</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N7" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T7" t="n">
         <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554463</v>
       </c>
       <c r="J8" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.6413398630668</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405366</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119864</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633791</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.6043567772738</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473549</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141104</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188909</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396472</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736699</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034978</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372663</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619149</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078606</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644438</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813575</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302234</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M10" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175838</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383795</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678004</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701162</v>
       </c>
       <c r="S10" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197222</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315608</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,46 +31752,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K11" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M11" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31834,43 +31834,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M12" t="n">
-        <v>234.5999298820448</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N12" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O12" t="n">
-        <v>694.9967242426204</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>329.9818210510351</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286952</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31916,7 +31916,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31925,16 +31925,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31946,7 +31946,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31989,46 +31989,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K14" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M14" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32071,7 +32071,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,34 +32080,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>471.6886536848224</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>302.8877650506839</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927637</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P15" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>372.8719498286952</v>
+        <v>273.0542121815558</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32153,7 +32153,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32162,16 +32162,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32183,7 +32183,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32226,46 +32226,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K17" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M17" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32308,7 +32308,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32317,34 +32317,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N18" t="n">
-        <v>716.6149901491025</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P18" t="n">
-        <v>557.7961431982453</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32390,7 +32390,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32399,16 +32399,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32420,7 +32420,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32463,46 +32463,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K20" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M20" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32545,7 +32545,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,34 +32554,34 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>199.0463877591107</v>
+        <v>170.7142372419518</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M21" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927637</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426204</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982454</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32627,7 +32627,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32636,16 +32636,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32657,7 +32657,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32700,46 +32700,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377426</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122283</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874064</v>
+        <v>463.3649706874065</v>
       </c>
       <c r="K23" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830431</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364265</v>
       </c>
       <c r="M23" t="n">
-        <v>958.6336695293307</v>
+        <v>958.633669529331</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229609</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086953</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687524</v>
+        <v>785.0773883687525</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148607</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987163</v>
       </c>
       <c r="S23" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.89879272665719</v>
+        <v>23.8987927266572</v>
       </c>
       <c r="U23" t="n">
         <v>0.436756920190194</v>
@@ -32782,10 +32782,10 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088191</v>
       </c>
       <c r="I24" t="n">
-        <v>100.5719078530531</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>275.9770021735818</v>
@@ -32794,31 +32794,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745724</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M24" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927637</v>
+        <v>487.0792071670518</v>
       </c>
       <c r="O24" t="n">
-        <v>188.4147547211814</v>
+        <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286952</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862161</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821093</v>
       </c>
       <c r="U24" t="n">
         <v>0.1921756201013754</v>
@@ -32864,7 +32864,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284927</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32873,16 +32873,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640619</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265021</v>
+        <v>383.8803574265022</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416875</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465963</v>
       </c>
       <c r="P25" t="n">
         <v>296.1865264282424</v>
@@ -32894,7 +32894,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851329</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -33022,28 +33022,28 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I27" t="n">
-        <v>100.5719078530532</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>275.9770021735821</v>
       </c>
       <c r="K27" t="n">
-        <v>471.688653684823</v>
+        <v>140.3328138609298</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504309</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927647</v>
       </c>
       <c r="O27" t="n">
-        <v>684.1039798158766</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q27" t="n">
         <v>372.8719498286956</v>
@@ -33262,13 +33262,13 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K30" t="n">
         <v>471.688653684823</v>
       </c>
       <c r="L30" t="n">
-        <v>370.746248147652</v>
+        <v>361.6013389488571</v>
       </c>
       <c r="M30" t="n">
         <v>740.1323715504309</v>
@@ -33277,16 +33277,16 @@
         <v>759.7214730927647</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P30" t="n">
-        <v>557.796143198246</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.25758340862166</v>
@@ -33496,19 +33496,19 @@
         <v>28.21138103088193</v>
       </c>
       <c r="I33" t="n">
-        <v>100.5719078530532</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K33" t="n">
         <v>471.688653684823</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M33" t="n">
-        <v>418.8742322669786</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927647</v>
@@ -33517,13 +33517,13 @@
         <v>694.9967242426213</v>
       </c>
       <c r="P33" t="n">
-        <v>557.796143198246</v>
+        <v>459.3304791170268</v>
       </c>
       <c r="Q33" t="n">
-        <v>372.8719498286956</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>181.3625385436715</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.25758340862166</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U35" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.9770021735818</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K36" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L36" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O36" t="n">
-        <v>225.6487373053106</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>357.0213665833263</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U38" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K39" t="n">
-        <v>471.6886536848224</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745706</v>
       </c>
       <c r="M39" t="n">
-        <v>157.1247107680109</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>489.7119024980574</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377425</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122282</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704059</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874064</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K41" t="n">
-        <v>694.463976083043</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364263</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293307</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229608</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086952</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687524</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148606</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987162</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854257</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665719</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U41" t="n">
-        <v>0.436756920190194</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540905</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H42" t="n">
-        <v>28.2113810308819</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.9770021735818</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>634.2436048745724</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504301</v>
+        <v>740.1323715504278</v>
       </c>
       <c r="N42" t="n">
-        <v>397.1046860936001</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426204</v>
+        <v>595.1789865954902</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982453</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.2575834086216</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821092</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013754</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291843</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548567</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284925</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273333</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900886</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640618</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265021</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416874</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465962</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282424</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561742</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860859</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851328</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551969</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704643</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.459461502377409</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>55.91171011122265</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>210.4758895704053</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>463.364970687405</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>694.4639760830408</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>861.5439710364237</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>958.6336695293279</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>974.1453645229578</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>919.8578442086924</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>785.07738836875</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>589.5604233148588</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>342.9428985987152</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>124.4074789854253</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>23.89879272665712</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4367569201901926</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.921069425540896</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.21138103088182</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.977002173581</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684821</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>306.4674191928375</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>759.7214730927615</v>
       </c>
       <c r="O45" t="n">
-        <v>651.5998000366021</v>
+        <v>694.9967242426184</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982436</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>372.8719498286941</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.25758340862144</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.77395965821089</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1921756201013748</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.466841066189903</v>
+        <v>2.448926481291835</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.77318271548561</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>73.64589818284904</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>173.1391022273327</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>284.5207311900877</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>364.0885788640607</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>383.880357426501</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>374.7525405416863</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>346.1446266465952</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>296.1865264282415</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>205.0641983561736</v>
       </c>
       <c r="R46" t="n">
-        <v>110.9181446670478</v>
+        <v>110.1126397860856</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.67810967851315</v>
       </c>
       <c r="T46" t="n">
-        <v>10.54013910099322</v>
+        <v>10.46359496551966</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1335778080704639</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047527</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730088</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
@@ -35096,13 +35096,13 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N7" t="n">
         <v>148.370846145888</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.53613944353</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060963</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.01733575770686</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279167</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355132</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713948</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M10" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873144</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L11" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311495</v>
       </c>
       <c r="N11" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P11" t="n">
-        <v>605.157040442575</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M12" t="n">
-        <v>92.4658959600265</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N12" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O12" t="n">
-        <v>552.400479798176</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>196.0074136367048</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426737</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35576,19 +35576,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L14" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M14" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>744.7323009263698</v>
+        <v>796.0449487554599</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P14" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q14" t="n">
-        <v>418.5673812695028</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>333.8472147104634</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>164.3333852708097</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094305</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O15" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P15" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>232.8901757426737</v>
+        <v>133.0724380955343</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35813,19 +35813,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>333.6317139898119</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L17" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311486</v>
       </c>
       <c r="N17" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35965,25 +35965,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N18" t="n">
-        <v>585.2732780657692</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P18" t="n">
-        <v>423.8217357839151</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36050,19 +36050,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L20" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>728.287436302058</v>
+        <v>779.6000841311495</v>
       </c>
       <c r="N20" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P20" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q20" t="n">
-        <v>418.5673812695028</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845841</v>
+        <v>127.3573607845842</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20494878475174</v>
+        <v>32.8727982675928</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M21" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094305</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>552.400479798176</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>423.8217357839152</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36287,19 +36287,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607202</v>
       </c>
       <c r="K23" t="n">
-        <v>525.6867728671542</v>
+        <v>474.3741250380626</v>
       </c>
       <c r="L23" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664393</v>
       </c>
       <c r="M23" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N23" t="n">
-        <v>744.7323009263698</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870085</v>
       </c>
       <c r="P23" t="n">
-        <v>553.8443926134828</v>
+        <v>553.844392613483</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845841</v>
+        <v>178.6700086136732</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.049527853053107</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>149.1393755069151</v>
@@ -36442,22 +36442,22 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946982</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M24" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094305</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="O24" t="n">
-        <v>45.81851027673699</v>
+        <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426737</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211066052</v>
       </c>
       <c r="K25" t="n">
         <v>262.2512393642057</v>
@@ -36524,19 +36524,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883428</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.7297545606359</v>
+        <v>370.729754560636</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931358</v>
+        <v>293.4650856931359</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044799</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,10 +36597,10 @@
         <v>282.3190661607207</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380633</v>
+        <v>525.686772867146</v>
       </c>
       <c r="L26" t="n">
-        <v>677.090203895523</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M26" t="n">
         <v>728.2874363020592</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.04952785305322</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>149.1393755069154</v>
       </c>
       <c r="K27" t="n">
-        <v>333.847214710464</v>
+        <v>2.491374886570804</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284126</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094314</v>
       </c>
       <c r="O27" t="n">
-        <v>541.5077353714322</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q27" t="n">
         <v>232.8901757426741</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K30" t="n">
         <v>333.847214710464</v>
       </c>
       <c r="L30" t="n">
-        <v>232.1918683677778</v>
+        <v>223.0469591689829</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284126</v>
@@ -36925,16 +36925,16 @@
         <v>628.3797610094314</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839158</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37071,10 +37071,10 @@
         <v>282.3190661607207</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380633</v>
+        <v>525.6867728671471</v>
       </c>
       <c r="L32" t="n">
-        <v>677.090203895523</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M32" t="n">
         <v>728.2874363020592</v>
@@ -37144,19 +37144,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.04952785305322</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K33" t="n">
         <v>333.847214710464</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M33" t="n">
-        <v>276.7401983449603</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094314</v>
@@ -37165,13 +37165,13 @@
         <v>552.4004797981769</v>
       </c>
       <c r="P33" t="n">
-        <v>423.8217357839158</v>
+        <v>325.3560717026966</v>
       </c>
       <c r="Q33" t="n">
-        <v>232.8901757426741</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>35.68303457970759</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136732</v>
+        <v>178.6700086136952</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K36" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O36" t="n">
-        <v>83.05249286086615</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>223.0469591689961</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L37" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R38" t="n">
-        <v>178.6700086136732</v>
+        <v>178.6700086136952</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K39" t="n">
-        <v>333.8472147104634</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946964</v>
       </c>
       <c r="M39" t="n">
-        <v>14.99067684599255</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>355.7374950837272</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L40" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607201</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380625</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L41" t="n">
-        <v>625.777556066439</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M41" t="n">
-        <v>728.287436302058</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263698</v>
+        <v>744.7323009263669</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870084</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134828</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404111</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R41" t="n">
-        <v>178.670008613675</v>
+        <v>178.6700086136952</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069151</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>495.6892250946982</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284117</v>
+        <v>597.9983376284094</v>
       </c>
       <c r="N42" t="n">
-        <v>265.7629740102668</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O42" t="n">
-        <v>552.400479798176</v>
+        <v>452.5827421510457</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839151</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066049</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642057</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L43" t="n">
-        <v>391.678604124378</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883427</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209161</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606359</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931358</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044798</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>282.3190661607188</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>474.3741250380603</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>625.7775560664365</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>728.2874363020552</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>796.0449487554793</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>689.7596327870057</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>553.8443926134805</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>367.2547334404093</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>127.3573607845831</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069143</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>333.847214710462</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>164.3333852708192</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>628.3797610094282</v>
       </c>
       <c r="O45" t="n">
-        <v>509.0035555921577</v>
+        <v>552.4004797981739</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839134</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>232.8901757426726</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>79.77992211065995</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>262.2512393642048</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>391.6786041243769</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>423.4642343883416</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>418.8847129209149</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>370.7297545606348</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>293.465085693135</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>118.9021551044792</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_7_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2414156.006246174</v>
+        <v>2415975.277937217</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9964927.035287911</v>
+        <v>9964927.035287935</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.7823717238</v>
+        <v>430763.7823717217</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9591418.341927968</v>
+        <v>9591418.341927966</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>211.0025011558363</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>115.9738437752621</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -825,7 +825,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>26.32882004050051</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>26.32882004050054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>163.8427767359259</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>59.68935914213965</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
@@ -955,16 +955,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,7 +1065,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853702</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.941719304021795</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1144,16 +1144,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>371.0371742750738</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598851</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586824</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690822</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8432760127584</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H11" t="n">
         <v>283.5630920045443</v>
@@ -1426,7 +1426,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>42.51029296932885</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>21.11024843228049</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T13" t="n">
         <v>217.4819944627618</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1773,13 +1773,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>38.03682829123536</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1827,7 +1827,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>269.5342960617008</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2010,19 +2010,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>107.6332724243726</v>
       </c>
       <c r="H19" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.80457674440902</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U19" t="n">
-        <v>163.647285193466</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2137,7 +2137,7 @@
         <v>199.1970568374742</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9088959876463</v>
+        <v>250.9088959876461</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2244,19 +2244,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>84.56702400647403</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>64.44601915223835</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>9.43427371450322</v>
       </c>
       <c r="G25" t="n">
         <v>165.5420528771669</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>67.18075159108355</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T25" t="n">
         <v>217.4819944627618</v>
@@ -2541,7 +2541,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>21.36691228967391</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>89.5340822374541</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919504</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S28" t="n">
-        <v>26.07730666326349</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T28" t="n">
         <v>217.4819944627618</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>9.434273714506089</v>
+        <v>103.1983720868922</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>56.9324964476884</v>
+        <v>43.84520587351214</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
@@ -3204,10 +3204,10 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H35" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T35" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U35" t="n">
         <v>250.9088959876463</v>
@@ -3362,7 +3362,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T36" t="n">
         <v>188.3907690366107</v>
@@ -3429,13 +3429,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>64.44601915223043</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>64.44601915224108</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S37" t="n">
-        <v>181.3384883584591</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T37" t="n">
         <v>217.4819944627618</v>
@@ -3517,10 +3517,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H38" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T38" t="n">
-        <v>199.1970568374755</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U38" t="n">
         <v>250.9088959876463</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784681</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,7 +3599,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T39" t="n">
         <v>188.3907690366107</v>
@@ -3663,25 +3663,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>9.43427371449506</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H40" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440925</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.1807515910839</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S40" t="n">
-        <v>181.3384883584591</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1854515484204</v>
+        <v>240.1149483896201</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3751,13 +3751,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H41" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3836,7 +3836,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T42" t="n">
         <v>188.3907690366107</v>
@@ -3903,19 +3903,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>5.313812950980709</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S43" t="n">
-        <v>181.3384883584591</v>
+        <v>105.3305177187463</v>
       </c>
       <c r="T43" t="n">
         <v>217.4819944627618</v>
@@ -3991,10 +3991,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8432760127577</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
-        <v>283.5630920045445</v>
+        <v>283.5630920045443</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060082001</v>
+        <v>84.61259060081949</v>
       </c>
       <c r="T44" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374741</v>
       </c>
       <c r="U44" t="n">
         <v>250.9088959876463</v>
@@ -4073,7 +4073,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561465</v>
+        <v>84.02406320561452</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>117.4255876952164</v>
+        <v>117.4255876952162</v>
       </c>
       <c r="T45" t="n">
         <v>188.3907690366107</v>
@@ -4137,19 +4137,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>105.3798824585354</v>
       </c>
       <c r="E46" t="n">
-        <v>131.6267707433142</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>67.18075159108344</v>
       </c>
       <c r="S46" t="n">
-        <v>181.3384883584591</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T46" t="n">
         <v>217.4819944627618</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="C2" t="n">
-        <v>2107.607341885688</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D2" t="n">
-        <v>1749.341643278937</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2580.003794275533</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2361.369127247596</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>2107.607341885688</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4421,13 +4421,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,13 +4464,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>519.8857516585174</v>
+        <v>546.4805193761947</v>
       </c>
       <c r="C4" t="n">
-        <v>350.9495687306105</v>
+        <v>377.5443364482878</v>
       </c>
       <c r="D4" t="n">
-        <v>200.8329293182748</v>
+        <v>227.4276970359521</v>
       </c>
       <c r="E4" t="n">
         <v>200.8329293182748</v>
@@ -4533,7 +4533,7 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>701.5342164887571</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>1423.84567264245</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>1363.553390680693</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177354</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036444</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332392</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332392</v>
+        <v>2134.880026519314</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332392</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071312</v>
+        <v>1782.1113712492</v>
       </c>
       <c r="Y5" t="n">
-        <v>1757.366513095501</v>
+        <v>1782.1113712492</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615927</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598714</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.81559303506</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>544.5191867458693</v>
+        <v>520.9088977430001</v>
       </c>
       <c r="C7" t="n">
-        <v>544.5191867458693</v>
+        <v>351.9727148150932</v>
       </c>
       <c r="D7" t="n">
-        <v>394.4025473335336</v>
+        <v>201.8560754027575</v>
       </c>
       <c r="E7" t="n">
-        <v>246.4894537511405</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036444</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064341</v>
       </c>
       <c r="Q7" t="n">
-        <v>726.1676515761091</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R7" t="n">
-        <v>726.1676515761091</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S7" t="n">
-        <v>726.1676515761091</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T7" t="n">
-        <v>726.1676515761091</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U7" t="n">
-        <v>726.1676515761091</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V7" t="n">
-        <v>726.1676515761091</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W7" t="n">
-        <v>726.1676515761091</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X7" t="n">
-        <v>726.1676515761091</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y7" t="n">
-        <v>726.1676515761091</v>
+        <v>702.5573625732399</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>1744.211741652359</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>1385.946043045609</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>1000.157790447365</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177352</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036442</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036442</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224072</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4822,34 +4822,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018221</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018221</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>2113.174258592771</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>2113.174258592771</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204942</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615926</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572644</v>
+        <v>713.8062203571346</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315295</v>
+        <v>1237.953133915165</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036442</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036442</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036442</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036442</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
         <v>382.7169011658208</v>
@@ -4977,37 +4977,37 @@
         <v>529.6040388502498</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594899</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D11" t="n">
         <v>1591.032978284208</v>
@@ -5044,10 +5044,10 @@
         <v>373.3442236507201</v>
       </c>
       <c r="K11" t="n">
-        <v>842.974607438402</v>
+        <v>893.7741287892025</v>
       </c>
       <c r="L11" t="n">
-        <v>1462.494387944177</v>
+        <v>1513.293909294977</v>
       </c>
       <c r="M11" t="n">
         <v>2234.298471234015</v>
@@ -5074,19 +5074,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="12">
@@ -5120,22 +5120,22 @@
         <v>93.84834815160704</v>
       </c>
       <c r="J12" t="n">
-        <v>93.84834815160704</v>
+        <v>241.496329903453</v>
       </c>
       <c r="K12" t="n">
-        <v>424.3570907149658</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L12" t="n">
-        <v>915.0894235587172</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M12" t="n">
-        <v>1507.107777810845</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.203741210181</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.203741210181</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="P12" t="n">
         <v>2323.251080710519</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>746.1252502501684</v>
+        <v>701.6638349513296</v>
       </c>
       <c r="C13" t="n">
-        <v>577.1890673222615</v>
+        <v>532.7276520234227</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8655840573317</v>
+        <v>382.611012611087</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9524904749386</v>
+        <v>382.611012611087</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0625429770282</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G13" t="n">
-        <v>93.84834815160704</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H13" t="n">
         <v>93.84834815160704</v>
@@ -5226,25 +5226,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S13" t="n">
-        <v>2429.412499335695</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T13" t="n">
-        <v>2209.733717050076</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U13" t="n">
-        <v>1920.657503364803</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V13" t="n">
-        <v>1665.973015158916</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W13" t="n">
-        <v>1376.555845121956</v>
+        <v>1193.385654860886</v>
       </c>
       <c r="X13" t="n">
-        <v>1148.566294223938</v>
+        <v>965.3961039628687</v>
       </c>
       <c r="Y13" t="n">
-        <v>927.7737150804081</v>
+        <v>744.6035248193385</v>
       </c>
     </row>
     <row r="14">
@@ -5272,13 +5272,13 @@
         <v>380.2757138127629</v>
       </c>
       <c r="H14" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I14" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J14" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K14" t="n">
         <v>842.974607438402</v>
@@ -5290,34 +5290,34 @@
         <v>2183.498949883215</v>
       </c>
       <c r="N14" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O14" t="n">
-        <v>3654.445485610258</v>
+        <v>3654.445485610259</v>
       </c>
       <c r="P14" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q14" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R14" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T14" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U14" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X14" t="n">
         <v>3095.000365871304</v>
@@ -5351,10 +5351,10 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J15" t="n">
         <v>241.496329903453</v>
@@ -5363,22 +5363,22 @@
         <v>241.496329903453</v>
       </c>
       <c r="L15" t="n">
-        <v>241.496329903453</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="M15" t="n">
-        <v>833.5146841555808</v>
+        <v>732.2286627472043</v>
       </c>
       <c r="N15" t="n">
-        <v>1455.610647554917</v>
+        <v>1354.324626146541</v>
       </c>
       <c r="O15" t="n">
-        <v>2002.487122555111</v>
+        <v>1901.201101146735</v>
       </c>
       <c r="P15" t="n">
-        <v>2422.070640981187</v>
+        <v>2320.784619572811</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2551.345893558058</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>707.7042115721531</v>
+        <v>580.1153653172709</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7680286442462</v>
+        <v>411.179182389364</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6513892319105</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7382956495174</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F16" t="n">
-        <v>93.84834815160703</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="H16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I16" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J16" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K16" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L16" t="n">
         <v>820.2210160948589</v>
@@ -5463,25 +5463,25 @@
         <v>2429.412499335695</v>
       </c>
       <c r="S16" t="n">
-        <v>2390.991460657679</v>
+        <v>2246.242309074625</v>
       </c>
       <c r="T16" t="n">
-        <v>2171.312678372061</v>
+        <v>2026.563526789007</v>
       </c>
       <c r="U16" t="n">
-        <v>1882.236464686788</v>
+        <v>1737.487313103734</v>
       </c>
       <c r="V16" t="n">
-        <v>1627.551976480901</v>
+        <v>1482.802824897847</v>
       </c>
       <c r="W16" t="n">
-        <v>1338.13480644394</v>
+        <v>1210.545960189058</v>
       </c>
       <c r="X16" t="n">
-        <v>1110.145255545923</v>
+        <v>982.5564092910407</v>
       </c>
       <c r="Y16" t="n">
-        <v>889.3526764023928</v>
+        <v>761.7638301475106</v>
       </c>
     </row>
     <row r="17">
@@ -5503,19 +5503,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963563</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G17" t="n">
         <v>380.2757138127629</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J17" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K17" t="n">
         <v>842.974607438402</v>
@@ -5524,22 +5524,22 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4202.751434297607</v>
       </c>
       <c r="Q17" t="n">
-        <v>4566.333620403613</v>
+        <v>4566.333620403614</v>
       </c>
       <c r="R17" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S17" t="n">
         <v>4606.950144347201</v>
@@ -5588,16 +5588,16 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I18" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J18" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K18" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L18" t="n">
         <v>1062.737405310563</v>
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>869.9011758612336</v>
+        <v>746.1252502501684</v>
       </c>
       <c r="C19" t="n">
-        <v>700.9649929333267</v>
+        <v>577.1890673222615</v>
       </c>
       <c r="D19" t="n">
-        <v>550.8483535209909</v>
+        <v>427.0724279099258</v>
       </c>
       <c r="E19" t="n">
-        <v>402.9352599385978</v>
+        <v>427.0724279099258</v>
       </c>
       <c r="F19" t="n">
-        <v>402.9352599385978</v>
+        <v>427.0724279099258</v>
       </c>
       <c r="G19" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H19" t="n">
-        <v>93.84834815160703</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I19" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J19" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K19" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L19" t="n">
         <v>820.2210160948589</v>
@@ -5706,19 +5706,19 @@
         <v>2209.733717050076</v>
       </c>
       <c r="U19" t="n">
-        <v>2044.433428975868</v>
+        <v>1920.657503364803</v>
       </c>
       <c r="V19" t="n">
-        <v>1789.748940769981</v>
+        <v>1665.973015158916</v>
       </c>
       <c r="W19" t="n">
-        <v>1500.331770733021</v>
+        <v>1376.555845121956</v>
       </c>
       <c r="X19" t="n">
-        <v>1272.342219835003</v>
+        <v>1148.566294223938</v>
       </c>
       <c r="Y19" t="n">
-        <v>1051.549640691473</v>
+        <v>927.7737150804081</v>
       </c>
     </row>
     <row r="20">
@@ -5740,19 +5740,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J20" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K20" t="n">
         <v>842.974607438402</v>
@@ -5761,19 +5761,19 @@
         <v>1462.494387944177</v>
       </c>
       <c r="M20" t="n">
-        <v>2234.298471234015</v>
+        <v>2183.498949883215</v>
       </c>
       <c r="N20" t="n">
-        <v>2971.583449151121</v>
+        <v>2920.783927800321</v>
       </c>
       <c r="O20" t="n">
-        <v>3654.445485610259</v>
+        <v>3603.64596425946</v>
       </c>
       <c r="P20" t="n">
-        <v>4202.751434297607</v>
+        <v>4151.951912946808</v>
       </c>
       <c r="Q20" t="n">
-        <v>4566.333620403614</v>
+        <v>4515.534099052815</v>
       </c>
       <c r="R20" t="n">
         <v>4692.417407580352</v>
@@ -5825,31 +5825,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I21" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J21" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K21" t="n">
-        <v>274.0404001883699</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L21" t="n">
-        <v>764.7727330321212</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M21" t="n">
-        <v>1356.791087284249</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="N21" t="n">
-        <v>1356.791087284249</v>
+        <v>2276.851722962027</v>
       </c>
       <c r="O21" t="n">
-        <v>1903.667562284443</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P21" t="n">
-        <v>2323.251080710519</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.812354695766</v>
@@ -5892,28 +5892,28 @@
         <v>326.1595320196932</v>
       </c>
       <c r="D22" t="n">
-        <v>240.7382956495174</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7382956495174</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="F22" t="n">
-        <v>93.84834815160703</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G22" t="n">
-        <v>93.84834815160703</v>
+        <v>158.945337194272</v>
       </c>
       <c r="H22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I22" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J22" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K22" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L22" t="n">
         <v>820.2210160948589</v>
@@ -5965,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5977,19 +5977,19 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G23" t="n">
-        <v>380.2757138127629</v>
+        <v>380.275713812763</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J23" t="n">
-        <v>373.34422365072</v>
+        <v>373.3442236507201</v>
       </c>
       <c r="K23" t="n">
         <v>842.974607438402</v>
@@ -6013,28 +6013,28 @@
         <v>4515.534099052815</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580351</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.9501443472</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="24">
@@ -6062,16 +6062,16 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J24" t="n">
         <v>241.496329903453</v>
       </c>
       <c r="K24" t="n">
-        <v>572.0050724668117</v>
+        <v>572.0050724668118</v>
       </c>
       <c r="L24" t="n">
         <v>1062.737405310563</v>
@@ -6080,10 +6080,10 @@
         <v>1654.755759562691</v>
       </c>
       <c r="N24" t="n">
-        <v>2006.935879695572</v>
+        <v>1654.755759562691</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.812354695766</v>
+        <v>2201.632234562885</v>
       </c>
       <c r="P24" t="n">
         <v>2553.812354695766</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>952.5320614616467</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C25" t="n">
-        <v>783.5958785337398</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="D25" t="n">
-        <v>633.479239121404</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="E25" t="n">
-        <v>485.5661455390109</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="F25" t="n">
-        <v>485.5661455390109</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G25" t="n">
         <v>318.3519507135898</v>
@@ -6144,13 +6144,13 @@
         <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160704</v>
       </c>
       <c r="J25" t="n">
-        <v>172.8304710411609</v>
+        <v>172.830471041161</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117246</v>
+        <v>432.4591980117247</v>
       </c>
       <c r="L25" t="n">
         <v>820.2210160948589</v>
@@ -6171,28 +6171,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R25" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S25" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T25" t="n">
-        <v>2209.733717050076</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U25" t="n">
-        <v>1920.657503364803</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V25" t="n">
-        <v>1665.973015158916</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W25" t="n">
-        <v>1376.555845121956</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X25" t="n">
-        <v>1354.973105435416</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y25" t="n">
-        <v>1134.180526291886</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="26">
@@ -6205,7 +6205,7 @@
         <v>2318.261193831369</v>
       </c>
       <c r="C26" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D26" t="n">
         <v>1591.032978284208</v>
@@ -6214,10 +6214,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F26" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G26" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
         <v>93.84834815160706</v>
@@ -6226,7 +6226,7 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>373.3442236507205</v>
+        <v>424.1437450015126</v>
       </c>
       <c r="K26" t="n">
         <v>893.7741287891952</v>
@@ -6308,19 +6308,19 @@
         <v>241.4963299034533</v>
       </c>
       <c r="K27" t="n">
-        <v>243.9627910411584</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L27" t="n">
-        <v>734.6951238849103</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M27" t="n">
-        <v>734.6951238849103</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N27" t="n">
-        <v>1356.791087284247</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O27" t="n">
-        <v>1903.667562284443</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="P27" t="n">
         <v>2323.251080710519</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>719.7845364488942</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C28" t="n">
-        <v>550.8483535209873</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D28" t="n">
-        <v>550.8483535209873</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E28" t="n">
-        <v>402.9352599385942</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385942</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="G28" t="n">
-        <v>235.721065113173</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H28" t="n">
         <v>93.84834815160703</v>
@@ -6408,28 +6408,28 @@
         <v>2429.412499335697</v>
       </c>
       <c r="R28" t="n">
-        <v>2429.412499335697</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S28" t="n">
-        <v>2403.071785534421</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T28" t="n">
-        <v>2183.393003248802</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U28" t="n">
-        <v>1894.316789563529</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V28" t="n">
-        <v>1639.632301357642</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W28" t="n">
-        <v>1350.215131320681</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X28" t="n">
-        <v>1122.225580422664</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y28" t="n">
-        <v>901.4330012791339</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="29">
@@ -6451,10 +6451,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F29" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H29" t="n">
         <v>93.84834815160703</v>
@@ -6490,7 +6490,7 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T29" t="n">
         <v>4405.740996026519</v>
@@ -6548,19 +6548,19 @@
         <v>572.0050724668126</v>
       </c>
       <c r="L30" t="n">
-        <v>792.8215620441057</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M30" t="n">
-        <v>1384.839916296234</v>
+        <v>1654.755759562693</v>
       </c>
       <c r="N30" t="n">
-        <v>2006.935879695571</v>
+        <v>2276.85172296203</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2323.251080710519</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.812354695766</v>
@@ -6600,22 +6600,22 @@
         <v>495.0957149476028</v>
       </c>
       <c r="C31" t="n">
-        <v>485.5661455390108</v>
+        <v>390.8549350618531</v>
       </c>
       <c r="D31" t="n">
-        <v>485.5661455390108</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="E31" t="n">
-        <v>485.5661455390108</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F31" t="n">
-        <v>485.5661455390108</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G31" t="n">
-        <v>318.3519507135896</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H31" t="n">
-        <v>176.4792337520201</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I31" t="n">
         <v>93.84834815160703</v>
@@ -6688,13 +6688,13 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160683</v>
       </c>
       <c r="I32" t="n">
         <v>93.84834815160704</v>
@@ -6703,25 +6703,25 @@
         <v>373.3442236507206</v>
       </c>
       <c r="K32" t="n">
-        <v>893.7741287891961</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294972</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.29847123401</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.583449151117</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R32" t="n">
         <v>4692.417407580352</v>
@@ -6782,19 +6782,19 @@
         <v>241.4963299034533</v>
       </c>
       <c r="K33" t="n">
-        <v>572.0050724668126</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L33" t="n">
-        <v>1062.737405310565</v>
+        <v>732.2286627472052</v>
       </c>
       <c r="M33" t="n">
-        <v>1062.737405310565</v>
+        <v>1324.247016999334</v>
       </c>
       <c r="N33" t="n">
-        <v>1684.833368709902</v>
+        <v>1946.342980398671</v>
       </c>
       <c r="O33" t="n">
-        <v>2231.709843710097</v>
+        <v>2493.219455398866</v>
       </c>
       <c r="P33" t="n">
         <v>2553.812354695766</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>784.5128849845635</v>
+        <v>676.7441797778425</v>
       </c>
       <c r="C34" t="n">
-        <v>615.5767020566566</v>
+        <v>676.7441797778425</v>
       </c>
       <c r="D34" t="n">
-        <v>465.4600626443208</v>
+        <v>676.7441797778425</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9524904749386</v>
+        <v>632.4560930369212</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0625429770282</v>
+        <v>485.5661455390108</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160704</v>
+        <v>318.3519507135897</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520201</v>
       </c>
       <c r="I34" t="n">
         <v>93.84834815160704</v>
@@ -6897,13 +6897,13 @@
         <v>1414.943479856351</v>
       </c>
       <c r="W34" t="n">
-        <v>1414.943479856351</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X34" t="n">
-        <v>1186.953928958333</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y34" t="n">
-        <v>966.1613498148032</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963573</v>
+        <v>794.2588208963563</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127638</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160775</v>
+        <v>93.84834815160706</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K35" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L35" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M35" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N35" t="n">
-        <v>2920.783927800308</v>
+        <v>2971.583449151116</v>
       </c>
       <c r="O35" t="n">
-        <v>3603.645964259444</v>
+        <v>3654.445485610256</v>
       </c>
       <c r="P35" t="n">
-        <v>4151.95191294679</v>
+        <v>4202.751434297605</v>
       </c>
       <c r="Q35" t="n">
-        <v>4515.534099052795</v>
+        <v>4566.333620403612</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U35" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V35" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="36">
@@ -6992,61 +6992,61 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C36" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D36" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E36" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F36" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G36" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K36" t="n">
-        <v>572.0050724668096</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L36" t="n">
-        <v>572.0050724668096</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M36" t="n">
-        <v>1164.023426718935</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="N36" t="n">
-        <v>1786.119390118269</v>
+        <v>1684.833368709902</v>
       </c>
       <c r="O36" t="n">
-        <v>2332.995865118461</v>
+        <v>2231.709843710097</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S36" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U36" t="n">
         <v>2016.877442379908</v>
@@ -7058,7 +7058,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y36" t="n">
         <v>1111.876178449477</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149475921</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1595320196852</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0625429770282</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0625429770282</v>
+        <v>326.1595320196959</v>
       </c>
       <c r="F37" t="n">
         <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K37" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L37" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M37" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N37" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O37" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P37" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q37" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R37" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S37" t="n">
-        <v>2178.382964033118</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T37" t="n">
-        <v>1958.7041817475</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U37" t="n">
-        <v>1669.627968062227</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V37" t="n">
-        <v>1414.94347985634</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W37" t="n">
-        <v>1125.526309819379</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X37" t="n">
-        <v>897.536758921362</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y37" t="n">
-        <v>676.7441797778318</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
         <v>1949.298676890959</v>
       </c>
       <c r="D38" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E38" t="n">
         <v>1205.244725685964</v>
       </c>
       <c r="F38" t="n">
-        <v>794.2588208963568</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G38" t="n">
-        <v>380.2757138127632</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K38" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L38" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M38" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N38" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O38" t="n">
-        <v>3603.645964259444</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P38" t="n">
-        <v>4151.95191294679</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q38" t="n">
-        <v>4515.534099052795</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W38" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X38" t="n">
         <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7229,61 +7229,61 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C39" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D39" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E39" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F39" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G39" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J39" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K39" t="n">
-        <v>572.0050724668096</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="L39" t="n">
-        <v>1062.737405310559</v>
+        <v>732.2286627472052</v>
       </c>
       <c r="M39" t="n">
-        <v>1654.755759562684</v>
+        <v>1324.247016999334</v>
       </c>
       <c r="N39" t="n">
-        <v>1654.755759562684</v>
+        <v>1946.342980398671</v>
       </c>
       <c r="O39" t="n">
-        <v>2201.632234562877</v>
+        <v>2493.219455398866</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S39" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U39" t="n">
         <v>2016.877442379908</v>
@@ -7295,7 +7295,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y39" t="n">
         <v>1111.876178449477</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149475921</v>
+        <v>724.8017669852385</v>
       </c>
       <c r="C40" t="n">
-        <v>485.5661455390112</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="D40" t="n">
-        <v>485.5661455390112</v>
+        <v>555.8655840573316</v>
       </c>
       <c r="E40" t="n">
-        <v>485.5661455390112</v>
+        <v>407.9524904749385</v>
       </c>
       <c r="F40" t="n">
-        <v>485.5661455390112</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G40" t="n">
-        <v>318.3519507135901</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H40" t="n">
-        <v>176.4792337520204</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K40" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L40" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M40" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N40" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O40" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P40" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q40" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R40" t="n">
-        <v>2361.553154294188</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S40" t="n">
-        <v>2178.382964033118</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="T40" t="n">
-        <v>1958.7041817475</v>
+        <v>2141.87437200858</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062227</v>
+        <v>1899.334020099873</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.94347985634</v>
+        <v>1644.649531893986</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.526309819379</v>
+        <v>1355.232361857026</v>
       </c>
       <c r="X40" t="n">
-        <v>897.536758921362</v>
+        <v>1127.242810959008</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778318</v>
+        <v>906.4502318154782</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
-        <v>1591.032978284209</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E41" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963568</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127632</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K41" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L41" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M41" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N41" t="n">
-        <v>2920.783927800308</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O41" t="n">
-        <v>3603.645964259444</v>
+        <v>3603.645964259464</v>
       </c>
       <c r="P41" t="n">
-        <v>4151.95191294679</v>
+        <v>4151.951912946813</v>
       </c>
       <c r="Q41" t="n">
-        <v>4515.534099052795</v>
+        <v>4515.53409905282</v>
       </c>
       <c r="R41" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="42">
@@ -7466,61 +7466,61 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C42" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D42" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E42" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F42" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G42" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H42" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I42" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K42" t="n">
-        <v>241.4963299034522</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L42" t="n">
-        <v>241.4963299034522</v>
+        <v>1062.737405310565</v>
       </c>
       <c r="M42" t="n">
-        <v>833.5146841555776</v>
+        <v>1384.839916296234</v>
       </c>
       <c r="N42" t="n">
-        <v>1455.610647554911</v>
+        <v>2006.935879695571</v>
       </c>
       <c r="O42" t="n">
-        <v>1903.667562284447</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="P42" t="n">
-        <v>2323.251080710521</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R42" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S42" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T42" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U42" t="n">
         <v>2016.877442379908</v>
@@ -7532,7 +7532,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X42" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y42" t="n">
         <v>1111.876178449477</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>562.9550599890908</v>
+        <v>571.8714428665047</v>
       </c>
       <c r="C43" t="n">
-        <v>394.018877061184</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="D43" t="n">
-        <v>388.6513892319105</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="E43" t="n">
-        <v>240.7382956495174</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="F43" t="n">
-        <v>93.84834815160706</v>
+        <v>402.9352599385978</v>
       </c>
       <c r="G43" t="n">
-        <v>93.84834815160706</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H43" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J43" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K43" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L43" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M43" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N43" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O43" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P43" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q43" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R43" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S43" t="n">
-        <v>2246.242309074617</v>
+        <v>2255.15869195203</v>
       </c>
       <c r="T43" t="n">
-        <v>2026.563526788999</v>
+        <v>2035.479909666413</v>
       </c>
       <c r="U43" t="n">
-        <v>1737.487313103726</v>
+        <v>1746.403695981139</v>
       </c>
       <c r="V43" t="n">
-        <v>1482.802824897839</v>
+        <v>1491.719207775252</v>
       </c>
       <c r="W43" t="n">
-        <v>1193.385654860878</v>
+        <v>1202.302037738292</v>
       </c>
       <c r="X43" t="n">
-        <v>965.3961039628607</v>
+        <v>974.3124868402746</v>
       </c>
       <c r="Y43" t="n">
-        <v>744.6035248193306</v>
+        <v>753.5199076967444</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C44" t="n">
-        <v>1949.29867689096</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D44" t="n">
-        <v>1591.03297828421</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.244725685965</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963575</v>
+        <v>794.2588208963564</v>
       </c>
       <c r="G44" t="n">
-        <v>380.2757138127638</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H44" t="n">
-        <v>93.84834815160777</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I44" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>373.3442236507186</v>
+        <v>373.3442236507205</v>
       </c>
       <c r="K44" t="n">
-        <v>842.9746074383984</v>
+        <v>842.9746074384032</v>
       </c>
       <c r="L44" t="n">
-        <v>1462.494387944171</v>
+        <v>1462.494387944179</v>
       </c>
       <c r="M44" t="n">
-        <v>2183.498949883205</v>
+        <v>2183.498949883217</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.58344915113</v>
+        <v>2920.783927800325</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610265</v>
+        <v>3654.445485610257</v>
       </c>
       <c r="P44" t="n">
-        <v>4202.751434297611</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q44" t="n">
-        <v>4566.333620403616</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R44" t="n">
-        <v>4692.417407580353</v>
+        <v>4692.417407580352</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.950144347202</v>
+        <v>4606.950144347201</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.74099602652</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.29766674607</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W44" t="n">
-        <v>3468.466124132385</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871305</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="45">
@@ -7703,61 +7703,61 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>943.6608414294088</v>
+        <v>943.6608414294086</v>
       </c>
       <c r="C45" t="n">
-        <v>769.2078121482818</v>
+        <v>769.2078121482816</v>
       </c>
       <c r="D45" t="n">
-        <v>620.2734024870306</v>
+        <v>620.2734024870304</v>
       </c>
       <c r="E45" t="n">
-        <v>461.035947481575</v>
+        <v>461.0359474815749</v>
       </c>
       <c r="F45" t="n">
-        <v>314.50138950846</v>
+        <v>314.5013895084599</v>
       </c>
       <c r="G45" t="n">
-        <v>178.7211392683895</v>
+        <v>178.7211392683894</v>
       </c>
       <c r="H45" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J45" t="n">
-        <v>241.4963299034522</v>
+        <v>241.4963299034533</v>
       </c>
       <c r="K45" t="n">
-        <v>572.0050724668096</v>
+        <v>572.0050724668126</v>
       </c>
       <c r="L45" t="n">
-        <v>572.0050724668096</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="M45" t="n">
-        <v>734.6951238849206</v>
+        <v>965.2563978701578</v>
       </c>
       <c r="N45" t="n">
-        <v>1356.791087284254</v>
+        <v>1587.352361269495</v>
       </c>
       <c r="O45" t="n">
-        <v>1903.667562284447</v>
+        <v>2134.22883626969</v>
       </c>
       <c r="P45" t="n">
-        <v>2323.251080710521</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R45" t="n">
-        <v>2553.812354695767</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="S45" t="n">
         <v>2435.200649953124</v>
       </c>
       <c r="T45" t="n">
-        <v>2244.906943855538</v>
+        <v>2244.906943855537</v>
       </c>
       <c r="U45" t="n">
         <v>2016.877442379908</v>
@@ -7769,7 +7769,7 @@
         <v>1527.487977419963</v>
       </c>
       <c r="X45" t="n">
-        <v>1319.636477214431</v>
+        <v>1319.63647721443</v>
       </c>
       <c r="Y45" t="n">
         <v>1111.876178449477</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>562.9550599890908</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="C46" t="n">
-        <v>394.018877061184</v>
+        <v>495.0957149476028</v>
       </c>
       <c r="D46" t="n">
-        <v>394.018877061184</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0625429770282</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H46" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I46" t="n">
-        <v>93.84834815160706</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J46" t="n">
-        <v>172.8304710411604</v>
+        <v>172.8304710411611</v>
       </c>
       <c r="K46" t="n">
-        <v>432.4591980117232</v>
+        <v>432.4591980117251</v>
       </c>
       <c r="L46" t="n">
-        <v>820.2210160948563</v>
+        <v>820.2210160948597</v>
       </c>
       <c r="M46" t="n">
-        <v>1239.450608139314</v>
+        <v>1239.450608139319</v>
       </c>
       <c r="N46" t="n">
-        <v>1654.14647393102</v>
+        <v>1654.146473931027</v>
       </c>
       <c r="O46" t="n">
-        <v>2021.168930946049</v>
+        <v>2021.168930946057</v>
       </c>
       <c r="P46" t="n">
-        <v>2311.699365782252</v>
+        <v>2311.699365782261</v>
       </c>
       <c r="Q46" t="n">
-        <v>2429.412499335687</v>
+        <v>2429.412499335697</v>
       </c>
       <c r="R46" t="n">
-        <v>2429.412499335687</v>
+        <v>2361.553154294199</v>
       </c>
       <c r="S46" t="n">
-        <v>2246.242309074617</v>
+        <v>2178.382964033129</v>
       </c>
       <c r="T46" t="n">
-        <v>2026.563526788999</v>
+        <v>1958.704181747511</v>
       </c>
       <c r="U46" t="n">
-        <v>1737.487313103726</v>
+        <v>1669.627968062238</v>
       </c>
       <c r="V46" t="n">
-        <v>1482.802824897839</v>
+        <v>1414.943479856351</v>
       </c>
       <c r="W46" t="n">
-        <v>1193.385654860878</v>
+        <v>1125.52630981939</v>
       </c>
       <c r="X46" t="n">
-        <v>965.3961039628607</v>
+        <v>897.5367589213727</v>
       </c>
       <c r="Y46" t="n">
-        <v>744.6035248193306</v>
+        <v>676.7441797778425</v>
       </c>
     </row>
   </sheetData>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028825</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050823</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.658803395179</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270196</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451766</v>
+        <v>435.9238900028835</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8692,13 +8692,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>51.3126478290913</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8938,10 +8938,10 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>51.31264782908988</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>51.31264782909034</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9181,7 +9181,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>51.31264782909057</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9409,7 +9409,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>51.31264782909125</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9424,7 +9424,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9661,7 +9661,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>51.312647829089</v>
+        <v>51.31264782908991</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9874,10 +9874,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>51.31264782908289</v>
       </c>
       <c r="K26" t="n">
-        <v>51.31264782908278</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -10351,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>51.3126478290838</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.312647829084</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10597,7 +10597,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>51.31264782908261</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>51.31264782911214</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>51.31264782911214</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>51.31264782911214</v>
+        <v>51.31264782908309</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11308,10 +11308,10 @@
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>51.31264782911239</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>51.31264782908329</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>137.3216872126085</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>127.5052245859319</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.80457674440902</v>
@@ -23466,7 +23466,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S13" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23661,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.4539897919539</v>
@@ -23703,7 +23703,7 @@
         <v>67.18075159108355</v>
       </c>
       <c r="S16" t="n">
-        <v>143.3016600672236</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23715,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>16.98870227489016</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.90878045279436</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23946,7 +23946,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>122.5381663549544</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>64.04844901173833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.4539897919539</v>
+        <v>76.00797063971557</v>
       </c>
       <c r="I22" t="n">
         <v>81.80457674440902</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>135.986774308428</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24429,7 +24429,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>204.3427430993632</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>76.00797063971282</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,10 +24648,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108344</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>155.2611816951954</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>157.8125473841218</v>
+        <v>64.04844901173564</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>89.50146619888076</v>
+        <v>102.588756773057</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440895</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>84.16945386598192</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>80.97502887069017</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>157.8125473841328</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,13 +25599,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.3384883584589</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>46.07050315880034</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>143.3016600672316</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.453989791954</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>76.0079706397126</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26025,25 +26025,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>43.23559055967699</v>
       </c>
       <c r="E46" t="n">
-        <v>14.80719190325499</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
-        <v>140.453989791954</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440925</v>
+        <v>81.80457674440895</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.1807515910839</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>811667.3700579049</v>
+        <v>811667.370057905</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>811667.3700579051</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>811667.370057905</v>
+        <v>811667.3700579049</v>
       </c>
     </row>
   </sheetData>
@@ -26316,46 +26316,46 @@
         <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.327398213</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
+        <v>605012.2328389194</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605012.2328389192</v>
+      </c>
+      <c r="G2" t="n">
         <v>605012.2328389189</v>
       </c>
-      <c r="F2" t="n">
-        <v>605012.232838919</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605012.232838919</v>
-      </c>
       <c r="H2" t="n">
-        <v>605012.2328389193</v>
+        <v>605012.2328389192</v>
       </c>
       <c r="I2" t="n">
-        <v>605012.2328389187</v>
+        <v>605012.2328389194</v>
       </c>
       <c r="J2" t="n">
-        <v>605012.2328389194</v>
+        <v>605012.2328389195</v>
       </c>
       <c r="K2" t="n">
         <v>605012.2328389195</v>
       </c>
       <c r="L2" t="n">
+        <v>605012.2328389197</v>
+      </c>
+      <c r="M2" t="n">
+        <v>605012.2328389197</v>
+      </c>
+      <c r="N2" t="n">
+        <v>605012.2328389192</v>
+      </c>
+      <c r="O2" t="n">
+        <v>605012.2328389196</v>
+      </c>
+      <c r="P2" t="n">
         <v>605012.2328389194</v>
-      </c>
-      <c r="M2" t="n">
-        <v>605012.2328389194</v>
-      </c>
-      <c r="N2" t="n">
-        <v>605012.2328389193</v>
-      </c>
-      <c r="O2" t="n">
-        <v>605012.2328389192</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605012.2328389192</v>
       </c>
     </row>
     <row r="3">
@@ -26374,10 +26374,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>936509.6654545127</v>
+        <v>936509.6654545126</v>
       </c>
       <c r="F3" t="n">
-        <v>2.413517661587885e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192594</v>
+        <v>176423.2191925939</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>124307.2113901334</v>
+        <v>124307.2113901372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="C4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
         <v>201064.5059277316</v>
       </c>
       <c r="E4" t="n">
-        <v>5781.971894855083</v>
+        <v>5781.97189485512</v>
       </c>
       <c r="F4" t="n">
+        <v>5781.971894855069</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5781.97189485511</v>
+      </c>
+      <c r="H4" t="n">
         <v>5781.971894855101</v>
       </c>
-      <c r="G4" t="n">
-        <v>5781.971894855107</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5781.97189485512</v>
-      </c>
       <c r="I4" t="n">
-        <v>5781.971894855089</v>
+        <v>5781.971894855101</v>
       </c>
       <c r="J4" t="n">
-        <v>5781.971894855051</v>
+        <v>5781.971894855003</v>
       </c>
       <c r="K4" t="n">
         <v>5781.971894855006</v>
       </c>
       <c r="L4" t="n">
-        <v>5781.971894855016</v>
+        <v>5781.97189485502</v>
       </c>
       <c r="M4" t="n">
-        <v>5781.97189485541</v>
+        <v>5781.971894854999</v>
       </c>
       <c r="N4" t="n">
-        <v>5781.971894855355</v>
+        <v>5781.971894855006</v>
       </c>
       <c r="O4" t="n">
-        <v>5781.97189485541</v>
+        <v>5781.971894855006</v>
       </c>
       <c r="P4" t="n">
-        <v>5781.971894855415</v>
+        <v>5781.971894855009</v>
       </c>
     </row>
     <row r="5">
@@ -26475,22 +26475,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572386</v>
       </c>
       <c r="F5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="G5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="H5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572386</v>
@@ -26502,16 +26502,16 @@
         <v>100930.0394572386</v>
       </c>
       <c r="M5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="N5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="O5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
       <c r="P5" t="n">
-        <v>100930.0394572385</v>
+        <v>100930.0394572386</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>-258110.1358074728</v>
       </c>
       <c r="C6" t="n">
-        <v>331857.7434070717</v>
+        <v>331857.743407072</v>
       </c>
       <c r="D6" t="n">
-        <v>331857.7434070717</v>
+        <v>331857.7434070718</v>
       </c>
       <c r="E6" t="n">
-        <v>-438568.4137863306</v>
+        <v>-438245.3409495512</v>
       </c>
       <c r="F6" t="n">
-        <v>497941.2516681823</v>
+        <v>498264.3245049613</v>
       </c>
       <c r="G6" t="n">
-        <v>497941.2516681823</v>
+        <v>498264.3245049609</v>
       </c>
       <c r="H6" t="n">
-        <v>497941.2516681825</v>
+        <v>498264.3245049611</v>
       </c>
       <c r="I6" t="n">
-        <v>497941.2516681819</v>
+        <v>498264.3245049614</v>
       </c>
       <c r="J6" t="n">
-        <v>321518.0324755887</v>
+        <v>321841.1053123677</v>
       </c>
       <c r="K6" t="n">
-        <v>497941.2516681828</v>
+        <v>498264.3245049616</v>
       </c>
       <c r="L6" t="n">
-        <v>497941.2516681827</v>
+        <v>498264.3245049618</v>
       </c>
       <c r="M6" t="n">
-        <v>373634.040278049</v>
+        <v>373957.1131148247</v>
       </c>
       <c r="N6" t="n">
-        <v>497941.2516681823</v>
+        <v>498264.3245049613</v>
       </c>
       <c r="O6" t="n">
-        <v>497941.2516681821</v>
+        <v>498264.3245049617</v>
       </c>
       <c r="P6" t="n">
-        <v>497941.2516681821</v>
+        <v>498264.3245049615</v>
       </c>
     </row>
   </sheetData>
@@ -26709,7 +26709,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26743,7 +26743,7 @@
         <v>377.7436642170865</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26770,16 +26770,16 @@
         <v>1358.041048716387</v>
       </c>
       <c r="M3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="N3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="O3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
       <c r="P3" t="n">
-        <v>1358.041048716382</v>
+        <v>1358.041048716387</v>
       </c>
     </row>
     <row r="4">
@@ -26795,7 +26795,7 @@
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26919,7 +26919,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>-4.544245200044531e-12</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.8170791405328</v>
+        <v>498.8170791405325</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.817079140533</v>
+        <v>498.8170791405323</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27156,7 +27156,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.016897076984856e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.8170791405328</v>
+        <v>498.8170791405325</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>154.2703906151712</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27426,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>58.44186903370944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27545,7 +27545,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>120.1051426060687</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>192.2558333115942</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>218.8910649275547</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>322.2410109301221</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481174</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -27675,16 +27675,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,7 +27785,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>27.18103065089253</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27864,16 +27864,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>35.83887146663767</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,10 +27900,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
@@ -27915,13 +27915,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858394</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060691</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717196</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853703</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491434</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28104,7 +28104,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.139557993131504e-13</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28326,7 +28326,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -29450,7 +29450,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>3.523735785918312e-12</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -30276,7 +30276,7 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>-8.35287806651275e-13</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -31521,40 +31521,40 @@
         <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727435</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S8" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649101</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983121</v>
       </c>
       <c r="N9" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
         <v>193.3156655923046</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034978</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644438</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L10" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M10" t="n">
         <v>106.7776065917249</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695335</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31840,7 +31840,7 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K12" t="n">
         <v>471.6886536848224</v>
@@ -31858,7 +31858,7 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>329.9818210510351</v>
+        <v>180.8424455441202</v>
       </c>
       <c r="Q12" t="n">
         <v>372.8719498286953</v>
@@ -32083,10 +32083,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745725</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>759.7214730927639</v>
@@ -32098,10 +32098,10 @@
         <v>557.7961431982454</v>
       </c>
       <c r="Q15" t="n">
-        <v>273.0542121815558</v>
+        <v>372.8719498286953</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>148.1708788505381</v>
       </c>
       <c r="S15" t="n">
         <v>54.25758340862161</v>
@@ -32554,7 +32554,7 @@
         <v>275.9770021735818</v>
       </c>
       <c r="K21" t="n">
-        <v>170.7142372419518</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
         <v>634.2436048745725</v>
@@ -32563,16 +32563,16 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927639</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>422.3544583169084</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32800,13 +32800,13 @@
         <v>740.1323715504302</v>
       </c>
       <c r="N24" t="n">
-        <v>487.0792071670518</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>694.9967242426205</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>489.7119024980487</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33028,22 +33028,22 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K27" t="n">
-        <v>140.3328138609298</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L27" t="n">
         <v>634.2436048745732</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N27" t="n">
         <v>759.7214730927647</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426213</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>557.796143198246</v>
+        <v>180.842445544117</v>
       </c>
       <c r="Q27" t="n">
         <v>372.8719498286956</v>
@@ -33268,7 +33268,7 @@
         <v>471.688653684823</v>
       </c>
       <c r="L30" t="n">
-        <v>361.6013389488571</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M30" t="n">
         <v>740.1323715504309</v>
@@ -33277,13 +33277,13 @@
         <v>759.7214730927647</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426213</v>
+        <v>189.4642825742312</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286956</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
@@ -33502,13 +33502,13 @@
         <v>275.9770021735821</v>
       </c>
       <c r="K33" t="n">
-        <v>471.688653684823</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>634.2436048745732</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N33" t="n">
         <v>759.7214730927647</v>
@@ -33517,7 +33517,7 @@
         <v>694.9967242426213</v>
       </c>
       <c r="P33" t="n">
-        <v>459.3304791170268</v>
+        <v>195.1793561990784</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I35" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J35" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M35" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P35" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S35" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T35" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K36" t="n">
-        <v>471.688653684821</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504278</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P36" t="n">
-        <v>357.0213665833263</v>
+        <v>459.3304791170268</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H37" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J37" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K37" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M37" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P37" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q37" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R37" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T37" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I38" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J38" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M38" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P38" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S38" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T38" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,34 +33964,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K39" t="n">
-        <v>471.688653684821</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>634.2436048745706</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M39" t="n">
-        <v>740.1323715504278</v>
+        <v>740.1323715504309</v>
       </c>
       <c r="N39" t="n">
-        <v>131.3417120833333</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P39" t="n">
-        <v>489.7119024980574</v>
+        <v>195.1793561990784</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H40" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J40" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K40" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M40" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P40" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q40" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R40" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T40" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I41" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J41" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M41" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P41" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S41" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T41" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U41" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745732</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504278</v>
+        <v>467.4901056247149</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O42" t="n">
-        <v>595.1789865954902</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982436</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286941</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H43" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J43" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K43" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M43" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P43" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q43" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R43" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T43" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377409</v>
+        <v>5.459461502377432</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122265</v>
+        <v>55.91171011122289</v>
       </c>
       <c r="I44" t="n">
-        <v>210.4758895704053</v>
+        <v>210.4758895704061</v>
       </c>
       <c r="J44" t="n">
-        <v>463.364970687405</v>
+        <v>463.364970687407</v>
       </c>
       <c r="K44" t="n">
-        <v>694.4639760830408</v>
+        <v>694.4639760830438</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364237</v>
+        <v>861.5439710364274</v>
       </c>
       <c r="M44" t="n">
-        <v>958.6336695293279</v>
+        <v>958.6336695293319</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229578</v>
+        <v>974.1453645229619</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086924</v>
+        <v>919.8578442086962</v>
       </c>
       <c r="P44" t="n">
-        <v>785.07738836875</v>
+        <v>785.0773883687533</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148588</v>
+        <v>589.5604233148613</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987152</v>
+        <v>342.9428985987167</v>
       </c>
       <c r="S44" t="n">
-        <v>124.4074789854253</v>
+        <v>124.4074789854259</v>
       </c>
       <c r="T44" t="n">
-        <v>23.89879272665712</v>
+        <v>23.89879272665722</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4367569201901926</v>
+        <v>0.4367569201901945</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.921069425540896</v>
+        <v>2.921069425540908</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088182</v>
+        <v>28.21138103088193</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>275.977002173581</v>
+        <v>275.9770021735821</v>
       </c>
       <c r="K45" t="n">
-        <v>471.688653684821</v>
+        <v>471.688653684823</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>535.7779407933542</v>
       </c>
       <c r="M45" t="n">
-        <v>306.4674191928375</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927615</v>
+        <v>759.7214730927647</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426184</v>
+        <v>694.9967242426213</v>
       </c>
       <c r="P45" t="n">
-        <v>557.7961431982436</v>
+        <v>557.796143198246</v>
       </c>
       <c r="Q45" t="n">
-        <v>372.8719498286941</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.25758340862144</v>
+        <v>54.25758340862166</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821089</v>
+        <v>11.77395965821094</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1921756201013748</v>
+        <v>0.1921756201013756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>2.448926481291835</v>
+        <v>2.448926481291846</v>
       </c>
       <c r="H46" t="n">
-        <v>21.77318271548561</v>
+        <v>21.7731827154857</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284904</v>
+        <v>73.64589818284934</v>
       </c>
       <c r="J46" t="n">
-        <v>173.1391022273327</v>
+        <v>173.1391022273335</v>
       </c>
       <c r="K46" t="n">
-        <v>284.5207311900877</v>
+        <v>284.5207311900889</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640607</v>
+        <v>364.0885788640622</v>
       </c>
       <c r="M46" t="n">
-        <v>383.880357426501</v>
+        <v>383.8803574265026</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416863</v>
+        <v>374.7525405416878</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465952</v>
+        <v>346.1446266465966</v>
       </c>
       <c r="P46" t="n">
-        <v>296.1865264282415</v>
+        <v>296.1865264282427</v>
       </c>
       <c r="Q46" t="n">
-        <v>205.0641983561736</v>
+        <v>205.0641983561745</v>
       </c>
       <c r="R46" t="n">
-        <v>110.1126397860856</v>
+        <v>110.112639786086</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851315</v>
+        <v>42.67810967851333</v>
       </c>
       <c r="T46" t="n">
-        <v>10.46359496551966</v>
+        <v>10.4635949655197</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1335778080704639</v>
+        <v>0.1335778080704645</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -34798,7 +34798,7 @@
         <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770687</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031297</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730088</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262937</v>
@@ -35035,7 +35035,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.392610473064</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,25 +35175,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770686</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031297</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262937</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355132</v>
+        <v>515.9012490932201</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245897</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35342,13 +35342,13 @@
         <v>146.3614835535655</v>
       </c>
       <c r="N10" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>282.3190661607202</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>525.6867728671539</v>
       </c>
       <c r="L11" t="n">
         <v>625.7775560664393</v>
       </c>
       <c r="M11" t="n">
-        <v>779.6000841311495</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N11" t="n">
         <v>744.73230092637</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K12" t="n">
         <v>333.8472147104634</v>
@@ -35506,7 +35506,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>196.0074136367048</v>
+        <v>46.86803812978999</v>
       </c>
       <c r="Q12" t="n">
         <v>232.8901757426738</v>
@@ -35658,10 +35658,10 @@
         <v>728.2874363020583</v>
       </c>
       <c r="N14" t="n">
-        <v>796.0449487554599</v>
+        <v>744.73230092637</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160991</v>
       </c>
       <c r="P14" t="n">
         <v>553.844392613483</v>
@@ -35731,10 +35731,10 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>495.6892250946983</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>628.3797610094306</v>
@@ -35746,10 +35746,10 @@
         <v>423.8217357839152</v>
       </c>
       <c r="Q15" t="n">
-        <v>133.0724380955343</v>
+        <v>232.8901757426738</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>2.491374886574134</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M17" t="n">
-        <v>779.6000841311486</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N17" t="n">
         <v>744.73230092637</v>
@@ -35901,7 +35901,7 @@
         <v>689.7596327870085</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>605.1570404425736</v>
       </c>
       <c r="Q17" t="n">
         <v>367.2547334404112</v>
@@ -36129,7 +36129,7 @@
         <v>625.7775560664393</v>
       </c>
       <c r="M20" t="n">
-        <v>779.6000841311495</v>
+        <v>728.2874363020583</v>
       </c>
       <c r="N20" t="n">
         <v>744.73230092637</v>
@@ -36144,7 +36144,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>149.1393755069151</v>
       </c>
       <c r="K21" t="n">
-        <v>32.8727982675928</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
         <v>495.6892250946983</v>
@@ -36211,16 +36211,16 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>628.3797610094306</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>279.758213872464</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>367.2547334404112</v>
       </c>
       <c r="R23" t="n">
-        <v>178.6700086136732</v>
+        <v>178.6700086136741</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36448,13 +36448,13 @@
         <v>597.9983376284119</v>
       </c>
       <c r="N24" t="n">
-        <v>355.7374950837184</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>552.4004797981761</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>355.7374950837184</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36594,10 +36594,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>282.3190661607207</v>
+        <v>333.6317139898036</v>
       </c>
       <c r="K26" t="n">
-        <v>525.686772867146</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L26" t="n">
         <v>625.7775560664402</v>
@@ -36676,22 +36676,22 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K27" t="n">
-        <v>2.491374886570804</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L27" t="n">
         <v>495.689225094699</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N27" t="n">
         <v>628.3797610094314</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981769</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839158</v>
+        <v>46.86803812978678</v>
       </c>
       <c r="Q27" t="n">
         <v>232.8901757426741</v>
@@ -36916,7 +36916,7 @@
         <v>333.847214710464</v>
       </c>
       <c r="L30" t="n">
-        <v>223.0469591689829</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M30" t="n">
         <v>597.9983376284126</v>
@@ -36925,13 +36925,13 @@
         <v>628.3797610094314</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981769</v>
+        <v>46.86803812978678</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426741</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>282.3190661607207</v>
       </c>
       <c r="K32" t="n">
-        <v>525.6867728671471</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L32" t="n">
         <v>625.7775560664402</v>
@@ -37092,7 +37092,7 @@
         <v>367.2547334404118</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845846</v>
+        <v>178.6700086136686</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>149.1393755069154</v>
       </c>
       <c r="K33" t="n">
-        <v>333.847214710464</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>495.689225094699</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N33" t="n">
         <v>628.3797610094314</v>
@@ -37165,7 +37165,7 @@
         <v>552.4004797981769</v>
       </c>
       <c r="P33" t="n">
-        <v>325.3560717026966</v>
+        <v>61.20494878474815</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N35" t="n">
-        <v>744.7323009263669</v>
+        <v>796.0449487554536</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P35" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R35" t="n">
-        <v>178.6700086136952</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K36" t="n">
-        <v>333.847214710462</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284094</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P36" t="n">
-        <v>223.0469591689961</v>
+        <v>325.3560717026966</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K37" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L37" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N37" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O37" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P37" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N38" t="n">
-        <v>744.7323009263669</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P38" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R38" t="n">
-        <v>178.6700086136952</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K39" t="n">
-        <v>333.847214710462</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>495.6892250946964</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M39" t="n">
-        <v>597.9983376284094</v>
+        <v>597.9983376284126</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P39" t="n">
-        <v>355.7374950837272</v>
+        <v>61.20494878474815</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K40" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L40" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N40" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O40" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P40" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N41" t="n">
-        <v>744.7323009263669</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870057</v>
+        <v>689.7596327870094</v>
       </c>
       <c r="P41" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R41" t="n">
-        <v>178.6700086136952</v>
+        <v>178.6700086136676</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>495.689225094699</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284094</v>
+        <v>325.3560717026966</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O42" t="n">
-        <v>452.5827421510457</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839134</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426726</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K43" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N43" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O43" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P43" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>282.3190661607188</v>
+        <v>282.3190661607207</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380603</v>
+        <v>474.3741250380633</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664365</v>
+        <v>625.7775560664402</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2874363020552</v>
+        <v>728.2874363020592</v>
       </c>
       <c r="N44" t="n">
-        <v>796.0449487554793</v>
+        <v>744.732300926371</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870057</v>
+        <v>741.0722806160927</v>
       </c>
       <c r="P44" t="n">
-        <v>553.8443926134805</v>
+        <v>553.8443926134837</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404093</v>
+        <v>367.2547334404118</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845831</v>
+        <v>127.3573607845846</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>149.1393755069143</v>
+        <v>149.1393755069154</v>
       </c>
       <c r="K45" t="n">
-        <v>333.847214710462</v>
+        <v>333.847214710464</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>397.22356101348</v>
       </c>
       <c r="M45" t="n">
-        <v>164.3333852708192</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094282</v>
+        <v>628.3797610094314</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981739</v>
+        <v>552.4004797981769</v>
       </c>
       <c r="P45" t="n">
-        <v>423.8217357839134</v>
+        <v>423.8217357839158</v>
       </c>
       <c r="Q45" t="n">
-        <v>232.8901757426726</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211065995</v>
+        <v>79.77992211066069</v>
       </c>
       <c r="K46" t="n">
-        <v>262.2512393642048</v>
+        <v>262.2512393642061</v>
       </c>
       <c r="L46" t="n">
-        <v>391.6786041243769</v>
+        <v>391.6786041243784</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883416</v>
+        <v>423.4642343883432</v>
       </c>
       <c r="N46" t="n">
-        <v>418.8847129209149</v>
+        <v>418.8847129209164</v>
       </c>
       <c r="O46" t="n">
-        <v>370.7297545606348</v>
+        <v>370.7297545606363</v>
       </c>
       <c r="P46" t="n">
-        <v>293.465085693135</v>
+        <v>293.4650856931362</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044792</v>
+        <v>118.9021551044801</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
